--- a/backend/uploads/currentinventory_1_uk_january2026.xlsx
+++ b/backend/uploads/currentinventory_1_uk_january2026.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="55">
   <si>
     <t>Sno.</t>
   </si>
@@ -124,6 +124,12 @@
     <t>SEIWHCMEWI</t>
   </si>
   <si>
+    <t>25-954C-QWS0</t>
+  </si>
+  <si>
+    <t>SEIWBW</t>
+  </si>
+  <si>
     <t>Classic</t>
   </si>
   <si>
@@ -164,6 +170,12 @@
   </si>
   <si>
     <t>Wipes + Menthol</t>
+  </si>
+  <si>
+    <t>New Wipes</t>
+  </si>
+  <si>
+    <t>Body Wash</t>
   </si>
   <si>
     <t>Total</t>
@@ -524,7 +536,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:V16"/>
+  <dimension ref="A1:V18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -606,16 +618,16 @@
         <v>22</v>
       </c>
       <c r="C2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>4588</v>
+        <v>4531</v>
       </c>
       <c r="K2">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="L2">
         <v>6</v>
@@ -624,31 +636,31 @@
         <v>10</v>
       </c>
       <c r="N2">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="O2">
-        <v>4613</v>
+        <v>4537</v>
       </c>
       <c r="P2">
-        <v>4122</v>
+        <v>4286</v>
       </c>
       <c r="Q2">
-        <v>511.68</v>
+        <v>504.85</v>
       </c>
       <c r="R2">
-        <v>4588</v>
+        <v>3974</v>
       </c>
       <c r="S2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T2">
         <v>0</v>
       </c>
       <c r="U2">
-        <v>0</v>
+        <v>558</v>
       </c>
       <c r="V2">
-        <v>4588</v>
+        <v>4531</v>
       </c>
     </row>
     <row r="3" spans="1:22">
@@ -659,37 +671,37 @@
         <v>23</v>
       </c>
       <c r="C3" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>844</v>
+        <v>838</v>
       </c>
       <c r="K3">
-        <v>147</v>
+        <v>99</v>
       </c>
       <c r="L3">
-        <v>242</v>
+        <v>290</v>
       </c>
       <c r="M3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N3">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="O3">
-        <v>454</v>
+        <v>450</v>
       </c>
       <c r="P3">
-        <v>38350</v>
+        <v>33101</v>
       </c>
       <c r="Q3">
-        <v>71.45</v>
+        <v>70.73</v>
       </c>
       <c r="R3">
-        <v>844</v>
+        <v>772</v>
       </c>
       <c r="S3">
         <v>0</v>
@@ -698,10 +710,10 @@
         <v>0</v>
       </c>
       <c r="U3">
-        <v>0</v>
+        <v>66</v>
       </c>
       <c r="V3">
-        <v>844</v>
+        <v>838</v>
       </c>
     </row>
     <row r="4" spans="1:22">
@@ -712,13 +724,13 @@
         <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -736,13 +748,13 @@
         <v>232</v>
       </c>
       <c r="P4">
-        <v>35611</v>
+        <v>46507</v>
       </c>
       <c r="Q4">
-        <v>31.45</v>
+        <v>30.69</v>
       </c>
       <c r="R4">
-        <v>233</v>
+        <v>202</v>
       </c>
       <c r="S4">
         <v>0</v>
@@ -751,10 +763,10 @@
         <v>0</v>
       </c>
       <c r="U4">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="V4">
-        <v>233</v>
+        <v>228</v>
       </c>
     </row>
     <row r="5" spans="1:22">
@@ -765,13 +777,13 @@
         <v>25</v>
       </c>
       <c r="C5" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -786,16 +798,16 @@
         <v>0</v>
       </c>
       <c r="O5">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="P5">
-        <v>143228</v>
+        <v>148209</v>
       </c>
       <c r="Q5">
-        <v>8.029999999999999</v>
+        <v>7.88</v>
       </c>
       <c r="R5">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="S5">
         <v>0</v>
@@ -804,10 +816,10 @@
         <v>0</v>
       </c>
       <c r="U5">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="V5">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="6" spans="1:22">
@@ -818,19 +830,19 @@
         <v>26</v>
       </c>
       <c r="C6" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="K6">
         <v>1</v>
       </c>
       <c r="L6">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="M6">
         <v>0</v>
@@ -842,13 +854,13 @@
         <v>0</v>
       </c>
       <c r="P6">
-        <v>27236</v>
+        <v>23989</v>
       </c>
       <c r="Q6">
-        <v>32.43</v>
+        <v>31.77</v>
       </c>
       <c r="R6">
-        <v>263</v>
+        <v>216</v>
       </c>
       <c r="S6">
         <v>0</v>
@@ -857,10 +869,10 @@
         <v>0</v>
       </c>
       <c r="U6">
-        <v>0</v>
+        <v>42</v>
       </c>
       <c r="V6">
-        <v>263</v>
+        <v>258</v>
       </c>
     </row>
     <row r="7" spans="1:22">
@@ -871,19 +883,19 @@
         <v>27</v>
       </c>
       <c r="C7" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>793</v>
+        <v>779</v>
       </c>
       <c r="K7">
         <v>43</v>
       </c>
       <c r="L7">
-        <v>769</v>
+        <v>749</v>
       </c>
       <c r="M7">
         <v>0</v>
@@ -895,13 +907,13 @@
         <v>0</v>
       </c>
       <c r="P7">
-        <v>10367</v>
+        <v>10746</v>
       </c>
       <c r="Q7">
-        <v>92.95</v>
+        <v>91.12</v>
       </c>
       <c r="R7">
-        <v>793</v>
+        <v>631</v>
       </c>
       <c r="S7">
         <v>0</v>
@@ -910,10 +922,10 @@
         <v>0</v>
       </c>
       <c r="U7">
-        <v>0</v>
+        <v>148</v>
       </c>
       <c r="V7">
-        <v>793</v>
+        <v>779</v>
       </c>
     </row>
     <row r="8" spans="1:22">
@@ -924,7 +936,7 @@
         <v>28</v>
       </c>
       <c r="C8" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -948,13 +960,13 @@
         <v>313</v>
       </c>
       <c r="P8">
-        <v>151489</v>
+        <v>157552</v>
       </c>
       <c r="Q8">
-        <v>35.75</v>
+        <v>35.74</v>
       </c>
       <c r="R8">
-        <v>318</v>
+        <v>300</v>
       </c>
       <c r="S8">
         <v>0</v>
@@ -963,7 +975,7 @@
         <v>0</v>
       </c>
       <c r="U8">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="V8">
         <v>318</v>
@@ -977,7 +989,7 @@
         <v>29</v>
       </c>
       <c r="C9" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -1009,22 +1021,22 @@
         <v>30</v>
       </c>
       <c r="C10" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>949</v>
+        <v>944</v>
       </c>
       <c r="K10">
-        <v>108</v>
+        <v>54</v>
       </c>
       <c r="L10">
-        <v>774</v>
+        <v>828</v>
       </c>
       <c r="M10">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="N10">
         <v>0</v>
@@ -1033,13 +1045,13 @@
         <v>0</v>
       </c>
       <c r="P10">
-        <v>4122</v>
+        <v>4286</v>
       </c>
       <c r="Q10">
-        <v>113.04</v>
+        <v>112.43</v>
       </c>
       <c r="R10">
-        <v>949</v>
+        <v>866</v>
       </c>
       <c r="S10">
         <v>0</v>
@@ -1048,10 +1060,10 @@
         <v>0</v>
       </c>
       <c r="U10">
-        <v>0</v>
+        <v>78</v>
       </c>
       <c r="V10">
-        <v>949</v>
+        <v>944</v>
       </c>
     </row>
     <row r="11" spans="1:22">
@@ -1062,19 +1074,19 @@
         <v>31</v>
       </c>
       <c r="C11" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>1056</v>
+        <v>1051</v>
       </c>
       <c r="K11">
         <v>92</v>
       </c>
       <c r="L11">
-        <v>968</v>
+        <v>966</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -1086,13 +1098,13 @@
         <v>0</v>
       </c>
       <c r="P11">
-        <v>4122</v>
+        <v>4286</v>
       </c>
       <c r="Q11">
-        <v>98.22</v>
+        <v>97.64</v>
       </c>
       <c r="R11">
-        <v>1056</v>
+        <v>929</v>
       </c>
       <c r="S11">
         <v>0</v>
@@ -1101,10 +1113,10 @@
         <v>0</v>
       </c>
       <c r="U11">
-        <v>0</v>
+        <v>122</v>
       </c>
       <c r="V11">
-        <v>1056</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="12" spans="1:22">
@@ -1115,7 +1127,7 @@
         <v>32</v>
       </c>
       <c r="C12" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1142,10 +1154,10 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>61.92</v>
+        <v>61.91</v>
       </c>
       <c r="R12">
-        <v>507</v>
+        <v>504</v>
       </c>
       <c r="S12">
         <v>0</v>
@@ -1154,7 +1166,7 @@
         <v>0</v>
       </c>
       <c r="U12">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="V12">
         <v>507</v>
@@ -1168,13 +1180,13 @@
         <v>33</v>
       </c>
       <c r="C13" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="K13">
         <v>6</v>
@@ -1192,13 +1204,13 @@
         <v>0</v>
       </c>
       <c r="P13">
-        <v>124829</v>
+        <v>165150</v>
       </c>
       <c r="Q13">
-        <v>20.1</v>
+        <v>19.88</v>
       </c>
       <c r="R13">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="S13">
         <v>0</v>
@@ -1207,10 +1219,10 @@
         <v>0</v>
       </c>
       <c r="U13">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="V13">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="14" spans="1:22">
@@ -1221,7 +1233,7 @@
         <v>34</v>
       </c>
       <c r="C14" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1253,7 +1265,7 @@
         <v>35</v>
       </c>
       <c r="C15" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1262,10 +1274,10 @@
         <v>141</v>
       </c>
       <c r="K15">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="L15">
-        <v>118</v>
+        <v>124</v>
       </c>
       <c r="M15">
         <v>0</v>
@@ -1277,13 +1289,13 @@
         <v>0</v>
       </c>
       <c r="P15">
-        <v>97001</v>
+        <v>112992</v>
       </c>
       <c r="Q15">
-        <v>42.55</v>
+        <v>42.53</v>
       </c>
       <c r="R15">
-        <v>141</v>
+        <v>110</v>
       </c>
       <c r="S15">
         <v>0</v>
@@ -1292,45 +1304,51 @@
         <v>0</v>
       </c>
       <c r="U15">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="V15">
         <v>141</v>
       </c>
     </row>
     <row r="16" spans="1:22">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16" t="s">
+        <v>36</v>
+      </c>
       <c r="C16" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>9854</v>
+        <v>885</v>
       </c>
       <c r="K16">
-        <v>486</v>
+        <v>154</v>
       </c>
       <c r="L16">
-        <v>3637</v>
+        <v>630</v>
       </c>
       <c r="M16">
-        <v>148</v>
+        <v>105</v>
       </c>
       <c r="N16">
-        <v>26</v>
+        <v>0</v>
       </c>
       <c r="O16">
-        <v>5671</v>
+        <v>0</v>
       </c>
       <c r="P16">
-        <v>640477</v>
+        <v>23989</v>
       </c>
       <c r="Q16">
-        <v>1119.57</v>
+        <v>76.12</v>
       </c>
       <c r="R16">
-        <v>9854</v>
+        <v>784</v>
       </c>
       <c r="S16">
         <v>0</v>
@@ -1339,10 +1357,110 @@
         <v>0</v>
       </c>
       <c r="U16">
-        <v>0</v>
+        <v>101</v>
       </c>
       <c r="V16">
-        <v>9854</v>
+        <v>885</v>
+      </c>
+    </row>
+    <row r="17" spans="1:22">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17" t="s">
+        <v>37</v>
+      </c>
+      <c r="C17" t="s">
+        <v>53</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>83</v>
+      </c>
+      <c r="K17">
+        <v>83</v>
+      </c>
+      <c r="L17">
+        <v>0</v>
+      </c>
+      <c r="M17">
+        <v>0</v>
+      </c>
+      <c r="N17">
+        <v>0</v>
+      </c>
+      <c r="O17">
+        <v>0</v>
+      </c>
+      <c r="P17">
+        <v>54783</v>
+      </c>
+      <c r="Q17">
+        <v>6.16</v>
+      </c>
+      <c r="R17">
+        <v>47</v>
+      </c>
+      <c r="S17">
+        <v>0</v>
+      </c>
+      <c r="T17">
+        <v>0</v>
+      </c>
+      <c r="U17">
+        <v>36</v>
+      </c>
+      <c r="V17">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="18" spans="1:22">
+      <c r="C18" t="s">
+        <v>54</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <v>10723</v>
+      </c>
+      <c r="K18">
+        <v>616</v>
+      </c>
+      <c r="L18">
+        <v>4350</v>
+      </c>
+      <c r="M18">
+        <v>247</v>
+      </c>
+      <c r="N18">
+        <v>25</v>
+      </c>
+      <c r="O18">
+        <v>5590</v>
+      </c>
+      <c r="P18">
+        <v>789876</v>
+      </c>
+      <c r="Q18">
+        <v>1189.45</v>
+      </c>
+      <c r="R18">
+        <v>9487</v>
+      </c>
+      <c r="S18">
+        <v>1</v>
+      </c>
+      <c r="T18">
+        <v>0</v>
+      </c>
+      <c r="U18">
+        <v>1237</v>
+      </c>
+      <c r="V18">
+        <v>10723</v>
       </c>
     </row>
   </sheetData>

--- a/backend/uploads/currentinventory_1_uk_january2026.xlsx
+++ b/backend/uploads/currentinventory_1_uk_january2026.xlsx
@@ -624,7 +624,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>4531</v>
+        <v>4528</v>
       </c>
       <c r="K2">
         <v>12</v>
@@ -645,10 +645,10 @@
         <v>4286</v>
       </c>
       <c r="Q2">
-        <v>504.85</v>
+        <v>504.38</v>
       </c>
       <c r="R2">
-        <v>3974</v>
+        <v>3971</v>
       </c>
       <c r="S2">
         <v>1</v>
@@ -660,7 +660,7 @@
         <v>558</v>
       </c>
       <c r="V2">
-        <v>4531</v>
+        <v>4528</v>
       </c>
     </row>
     <row r="3" spans="1:22">
@@ -677,7 +677,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>838</v>
+        <v>836</v>
       </c>
       <c r="K3">
         <v>99</v>
@@ -698,10 +698,10 @@
         <v>33101</v>
       </c>
       <c r="Q3">
-        <v>70.73</v>
+        <v>70.56</v>
       </c>
       <c r="R3">
-        <v>772</v>
+        <v>770</v>
       </c>
       <c r="S3">
         <v>0</v>
@@ -713,7 +713,7 @@
         <v>66</v>
       </c>
       <c r="V3">
-        <v>838</v>
+        <v>836</v>
       </c>
     </row>
     <row r="4" spans="1:22">
@@ -730,7 +730,7 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -751,10 +751,10 @@
         <v>46507</v>
       </c>
       <c r="Q4">
-        <v>30.69</v>
+        <v>30.83</v>
       </c>
       <c r="R4">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="S4">
         <v>0</v>
@@ -766,7 +766,7 @@
         <v>26</v>
       </c>
       <c r="V4">
-        <v>228</v>
+        <v>229</v>
       </c>
     </row>
     <row r="5" spans="1:22">
@@ -889,7 +889,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="K7">
         <v>43</v>
@@ -910,10 +910,10 @@
         <v>10746</v>
       </c>
       <c r="Q7">
-        <v>91.12</v>
+        <v>91</v>
       </c>
       <c r="R7">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="S7">
         <v>0</v>
@@ -925,7 +925,7 @@
         <v>148</v>
       </c>
       <c r="V7">
-        <v>779</v>
+        <v>778</v>
       </c>
     </row>
     <row r="8" spans="1:22">
@@ -1027,7 +1027,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>944</v>
+        <v>943</v>
       </c>
       <c r="K10">
         <v>54</v>
@@ -1048,10 +1048,10 @@
         <v>4286</v>
       </c>
       <c r="Q10">
-        <v>112.43</v>
+        <v>112.31</v>
       </c>
       <c r="R10">
-        <v>866</v>
+        <v>865</v>
       </c>
       <c r="S10">
         <v>0</v>
@@ -1063,7 +1063,7 @@
         <v>78</v>
       </c>
       <c r="V10">
-        <v>944</v>
+        <v>943</v>
       </c>
     </row>
     <row r="11" spans="1:22">
@@ -1324,7 +1324,7 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="K16">
         <v>154</v>
@@ -1348,7 +1348,7 @@
         <v>76.12</v>
       </c>
       <c r="R16">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="S16">
         <v>0</v>
@@ -1360,7 +1360,7 @@
         <v>101</v>
       </c>
       <c r="V16">
-        <v>885</v>
+        <v>884</v>
       </c>
     </row>
     <row r="17" spans="1:22">
@@ -1424,7 +1424,7 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>10723</v>
+        <v>10716</v>
       </c>
       <c r="K18">
         <v>616</v>
@@ -1445,10 +1445,10 @@
         <v>789876</v>
       </c>
       <c r="Q18">
-        <v>1189.45</v>
+        <v>1188.71</v>
       </c>
       <c r="R18">
-        <v>9487</v>
+        <v>9480</v>
       </c>
       <c r="S18">
         <v>1</v>
@@ -1460,7 +1460,7 @@
         <v>1237</v>
       </c>
       <c r="V18">
-        <v>10723</v>
+        <v>10716</v>
       </c>
     </row>
   </sheetData>

--- a/backend/uploads/currentinventory_1_uk_january2026.xlsx
+++ b/backend/uploads/currentinventory_1_uk_january2026.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="55">
   <si>
     <t>Sno.</t>
   </si>
@@ -536,7 +536,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:V18"/>
+  <dimension ref="A1:V32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -624,7 +624,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>4503</v>
+        <v>4472</v>
       </c>
       <c r="K2">
         <v>12</v>
@@ -642,25 +642,25 @@
         <v>4537</v>
       </c>
       <c r="P2">
-        <v>4286</v>
+        <v>4632</v>
       </c>
       <c r="Q2">
-        <v>465.71</v>
+        <v>462.45</v>
       </c>
       <c r="R2">
-        <v>3960</v>
+        <v>3974</v>
       </c>
       <c r="S2">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="T2">
         <v>0</v>
       </c>
       <c r="U2">
-        <v>544</v>
+        <v>528</v>
       </c>
       <c r="V2">
-        <v>4503</v>
+        <v>4472</v>
       </c>
     </row>
     <row r="3" spans="1:22">
@@ -668,52 +668,52 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>836</v>
+        <v>4527</v>
       </c>
       <c r="K3">
-        <v>99</v>
+        <v>12</v>
       </c>
       <c r="L3">
-        <v>290</v>
+        <v>6</v>
       </c>
       <c r="M3">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="N3">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="O3">
-        <v>450</v>
+        <v>4537</v>
       </c>
       <c r="P3">
-        <v>33101</v>
+        <v>4286</v>
       </c>
       <c r="Q3">
-        <v>69.73999999999999</v>
+        <v>504.27</v>
       </c>
       <c r="R3">
-        <v>773</v>
+        <v>4029</v>
       </c>
       <c r="S3">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="T3">
         <v>0</v>
       </c>
       <c r="U3">
-        <v>63</v>
+        <v>528</v>
       </c>
       <c r="V3">
-        <v>836</v>
+        <v>4527</v>
       </c>
     </row>
     <row r="4" spans="1:22">
@@ -721,52 +721,52 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>229</v>
+        <v>833</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>290</v>
       </c>
       <c r="M4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N4">
+        <v>6</v>
+      </c>
+      <c r="O4">
+        <v>450</v>
+      </c>
+      <c r="P4">
+        <v>26309</v>
+      </c>
+      <c r="Q4">
+        <v>69.48</v>
+      </c>
+      <c r="R4">
+        <v>778</v>
+      </c>
+      <c r="S4">
         <v>2</v>
       </c>
-      <c r="O4">
-        <v>232</v>
-      </c>
-      <c r="P4">
-        <v>46507</v>
-      </c>
-      <c r="Q4">
-        <v>30.51</v>
-      </c>
-      <c r="R4">
-        <v>206</v>
-      </c>
-      <c r="S4">
-        <v>0</v>
-      </c>
       <c r="T4">
         <v>0</v>
       </c>
       <c r="U4">
-        <v>23</v>
+        <v>57</v>
       </c>
       <c r="V4">
-        <v>229</v>
+        <v>833</v>
       </c>
     </row>
     <row r="5" spans="1:22">
@@ -774,52 +774,52 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C5" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>58</v>
+        <v>836</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>290</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N5">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="O5">
-        <v>58</v>
+        <v>450</v>
       </c>
       <c r="P5">
-        <v>148209</v>
+        <v>33101</v>
       </c>
       <c r="Q5">
-        <v>7.83</v>
+        <v>70.56</v>
       </c>
       <c r="R5">
-        <v>53</v>
+        <v>781</v>
       </c>
       <c r="S5">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="T5">
         <v>0</v>
       </c>
       <c r="U5">
-        <v>5</v>
+        <v>57</v>
       </c>
       <c r="V5">
-        <v>58</v>
+        <v>836</v>
       </c>
     </row>
     <row r="6" spans="1:22">
@@ -827,40 +827,40 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C6" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>258</v>
+        <v>228</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L6">
-        <v>262</v>
+        <v>0</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="N6">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O6">
-        <v>0</v>
+        <v>232</v>
       </c>
       <c r="P6">
-        <v>23989</v>
+        <v>27792</v>
       </c>
       <c r="Q6">
-        <v>31.38</v>
+        <v>30.37</v>
       </c>
       <c r="R6">
-        <v>220</v>
+        <v>208</v>
       </c>
       <c r="S6">
         <v>0</v>
@@ -869,10 +869,10 @@
         <v>0</v>
       </c>
       <c r="U6">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="V6">
-        <v>258</v>
+        <v>228</v>
       </c>
     </row>
     <row r="7" spans="1:22">
@@ -880,40 +880,40 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>778</v>
+        <v>229</v>
       </c>
       <c r="K7">
-        <v>43</v>
+        <v>0</v>
       </c>
       <c r="L7">
-        <v>749</v>
+        <v>0</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="N7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O7">
-        <v>0</v>
+        <v>232</v>
       </c>
       <c r="P7">
-        <v>10746</v>
+        <v>46507</v>
       </c>
       <c r="Q7">
-        <v>90.15000000000001</v>
+        <v>30.83</v>
       </c>
       <c r="R7">
-        <v>633</v>
+        <v>209</v>
       </c>
       <c r="S7">
         <v>0</v>
@@ -922,10 +922,10 @@
         <v>0</v>
       </c>
       <c r="U7">
-        <v>145</v>
+        <v>20</v>
       </c>
       <c r="V7">
-        <v>778</v>
+        <v>229</v>
       </c>
     </row>
     <row r="8" spans="1:22">
@@ -933,40 +933,40 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>317</v>
+        <v>58</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="M8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O8">
-        <v>313</v>
+        <v>58</v>
       </c>
       <c r="P8">
-        <v>157552</v>
+        <v>90968</v>
       </c>
       <c r="Q8">
-        <v>35.53</v>
+        <v>7.83</v>
       </c>
       <c r="R8">
-        <v>302</v>
+        <v>54</v>
       </c>
       <c r="S8">
         <v>0</v>
@@ -975,10 +975,10 @@
         <v>0</v>
       </c>
       <c r="U8">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="V8">
-        <v>317</v>
+        <v>58</v>
       </c>
     </row>
     <row r="9" spans="1:22">
@@ -986,19 +986,40 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>58</v>
+      </c>
+      <c r="K9">
+        <v>0</v>
+      </c>
+      <c r="L9">
+        <v>0</v>
+      </c>
+      <c r="M9">
+        <v>0</v>
+      </c>
+      <c r="N9">
+        <v>0</v>
+      </c>
+      <c r="O9">
+        <v>58</v>
+      </c>
+      <c r="P9">
+        <v>148209</v>
+      </c>
+      <c r="Q9">
+        <v>7.88</v>
       </c>
       <c r="R9">
-        <v>0</v>
+        <v>54</v>
       </c>
       <c r="S9">
         <v>0</v>
@@ -1007,10 +1028,10 @@
         <v>0</v>
       </c>
       <c r="U9">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="V9">
-        <v>0</v>
+        <v>58</v>
       </c>
     </row>
     <row r="10" spans="1:22">
@@ -1018,25 +1039,25 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C10" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>941</v>
+        <v>258</v>
       </c>
       <c r="K10">
-        <v>54</v>
+        <v>1</v>
       </c>
       <c r="L10">
-        <v>828</v>
+        <v>262</v>
       </c>
       <c r="M10">
-        <v>67</v>
+        <v>0</v>
       </c>
       <c r="N10">
         <v>0</v>
@@ -1045,25 +1066,25 @@
         <v>0</v>
       </c>
       <c r="P10">
-        <v>4286</v>
+        <v>26497</v>
       </c>
       <c r="Q10">
-        <v>111.43</v>
+        <v>31.38</v>
       </c>
       <c r="R10">
-        <v>867</v>
+        <v>226</v>
       </c>
       <c r="S10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T10">
         <v>0</v>
       </c>
       <c r="U10">
-        <v>74</v>
+        <v>33</v>
       </c>
       <c r="V10">
-        <v>941</v>
+        <v>258</v>
       </c>
     </row>
     <row r="11" spans="1:22">
@@ -1071,22 +1092,22 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="C11" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>1043</v>
+        <v>258</v>
       </c>
       <c r="K11">
-        <v>92</v>
+        <v>1</v>
       </c>
       <c r="L11">
-        <v>966</v>
+        <v>262</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -1098,25 +1119,25 @@
         <v>0</v>
       </c>
       <c r="P11">
-        <v>4286</v>
+        <v>23989</v>
       </c>
       <c r="Q11">
-        <v>95.98999999999999</v>
+        <v>31.77</v>
       </c>
       <c r="R11">
-        <v>931</v>
+        <v>226</v>
       </c>
       <c r="S11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T11">
         <v>0</v>
       </c>
       <c r="U11">
-        <v>112</v>
+        <v>33</v>
       </c>
       <c r="V11">
-        <v>1043</v>
+        <v>258</v>
       </c>
     </row>
     <row r="12" spans="1:22">
@@ -1124,25 +1145,25 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="C12" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>507</v>
+        <v>765</v>
       </c>
       <c r="K12">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="L12">
-        <v>396</v>
+        <v>749</v>
       </c>
       <c r="M12">
-        <v>58</v>
+        <v>0</v>
       </c>
       <c r="N12">
         <v>0</v>
@@ -1151,25 +1172,25 @@
         <v>0</v>
       </c>
       <c r="P12">
-        <v>0</v>
+        <v>14548</v>
       </c>
       <c r="Q12">
-        <v>61.84</v>
+        <v>88.56</v>
       </c>
       <c r="R12">
-        <v>504</v>
+        <v>643</v>
       </c>
       <c r="S12">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="T12">
         <v>0</v>
       </c>
       <c r="U12">
-        <v>3</v>
+        <v>139</v>
       </c>
       <c r="V12">
-        <v>507</v>
+        <v>765</v>
       </c>
     </row>
     <row r="13" spans="1:22">
@@ -1177,25 +1198,25 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="C13" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>102</v>
+        <v>778</v>
       </c>
       <c r="K13">
-        <v>6</v>
+        <v>43</v>
       </c>
       <c r="L13">
-        <v>96</v>
+        <v>749</v>
       </c>
       <c r="M13">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N13">
         <v>0</v>
@@ -1204,25 +1225,25 @@
         <v>0</v>
       </c>
       <c r="P13">
-        <v>165150</v>
+        <v>10746</v>
       </c>
       <c r="Q13">
-        <v>19.79</v>
+        <v>91</v>
       </c>
       <c r="R13">
-        <v>100</v>
+        <v>656</v>
       </c>
       <c r="S13">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="T13">
         <v>0</v>
       </c>
       <c r="U13">
-        <v>2</v>
+        <v>139</v>
       </c>
       <c r="V13">
-        <v>102</v>
+        <v>778</v>
       </c>
     </row>
     <row r="14" spans="1:22">
@@ -1230,19 +1251,40 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="C14" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>316</v>
+      </c>
+      <c r="K14">
+        <v>0</v>
+      </c>
+      <c r="L14">
+        <v>3</v>
+      </c>
+      <c r="M14">
+        <v>1</v>
+      </c>
+      <c r="N14">
+        <v>1</v>
+      </c>
+      <c r="O14">
+        <v>313</v>
+      </c>
+      <c r="P14">
+        <v>156865</v>
+      </c>
+      <c r="Q14">
+        <v>35.41</v>
       </c>
       <c r="R14">
-        <v>0</v>
+        <v>302</v>
       </c>
       <c r="S14">
         <v>0</v>
@@ -1251,10 +1293,10 @@
         <v>0</v>
       </c>
       <c r="U14">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="V14">
-        <v>0</v>
+        <v>316</v>
       </c>
     </row>
     <row r="15" spans="1:22">
@@ -1262,40 +1304,40 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="C15" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>141</v>
+        <v>318</v>
       </c>
       <c r="K15">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="L15">
-        <v>124</v>
+        <v>3</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O15">
-        <v>0</v>
+        <v>313</v>
       </c>
       <c r="P15">
-        <v>112992</v>
+        <v>157552</v>
       </c>
       <c r="Q15">
-        <v>42.43</v>
+        <v>35.74</v>
       </c>
       <c r="R15">
-        <v>113</v>
+        <v>304</v>
       </c>
       <c r="S15">
         <v>0</v>
@@ -1304,10 +1346,10 @@
         <v>0</v>
       </c>
       <c r="U15">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="V15">
-        <v>141</v>
+        <v>318</v>
       </c>
     </row>
     <row r="16" spans="1:22">
@@ -1315,40 +1357,19 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="C16" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>884</v>
-      </c>
-      <c r="K16">
-        <v>154</v>
-      </c>
-      <c r="L16">
-        <v>630</v>
-      </c>
-      <c r="M16">
-        <v>105</v>
-      </c>
-      <c r="N16">
-        <v>0</v>
-      </c>
-      <c r="O16">
-        <v>0</v>
-      </c>
-      <c r="P16">
-        <v>23989</v>
-      </c>
-      <c r="Q16">
-        <v>75.90000000000001</v>
+        <v>0</v>
       </c>
       <c r="R16">
-        <v>783</v>
+        <v>0</v>
       </c>
       <c r="S16">
         <v>0</v>
@@ -1357,10 +1378,10 @@
         <v>0</v>
       </c>
       <c r="U16">
-        <v>101</v>
+        <v>0</v>
       </c>
       <c r="V16">
-        <v>884</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:22">
@@ -1368,25 +1389,25 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="C17" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>83</v>
+        <v>940</v>
       </c>
       <c r="K17">
-        <v>83</v>
+        <v>54</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>828</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="N17">
         <v>0</v>
@@ -1395,60 +1416,66 @@
         <v>0</v>
       </c>
       <c r="P17">
-        <v>54783</v>
+        <v>4632</v>
       </c>
       <c r="Q17">
-        <v>6.16</v>
+        <v>111.31</v>
       </c>
       <c r="R17">
-        <v>47</v>
+        <v>875</v>
       </c>
       <c r="S17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T17">
         <v>0</v>
       </c>
       <c r="U17">
-        <v>36</v>
+        <v>66</v>
       </c>
       <c r="V17">
-        <v>83</v>
+        <v>940</v>
       </c>
     </row>
     <row r="18" spans="1:22">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18" t="s">
+        <v>30</v>
+      </c>
       <c r="C18" t="s">
+        <v>46</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <v>943</v>
+      </c>
+      <c r="K18">
         <v>54</v>
       </c>
-      <c r="E18">
-        <v>0</v>
-      </c>
-      <c r="J18">
-        <v>10680</v>
-      </c>
-      <c r="K18">
-        <v>616</v>
-      </c>
       <c r="L18">
-        <v>4350</v>
+        <v>828</v>
       </c>
       <c r="M18">
-        <v>247</v>
+        <v>67</v>
       </c>
       <c r="N18">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="O18">
-        <v>5590</v>
+        <v>0</v>
       </c>
       <c r="P18">
-        <v>789876</v>
+        <v>4286</v>
       </c>
       <c r="Q18">
-        <v>1144.39</v>
+        <v>112.31</v>
       </c>
       <c r="R18">
-        <v>9492</v>
+        <v>878</v>
       </c>
       <c r="S18">
         <v>1</v>
@@ -1457,10 +1484,725 @@
         <v>0</v>
       </c>
       <c r="U18">
-        <v>1189</v>
+        <v>66</v>
       </c>
       <c r="V18">
-        <v>10680</v>
+        <v>943</v>
+      </c>
+    </row>
+    <row r="19" spans="1:22">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19" t="s">
+        <v>31</v>
+      </c>
+      <c r="C19" t="s">
+        <v>47</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="J19">
+        <v>1041</v>
+      </c>
+      <c r="K19">
+        <v>92</v>
+      </c>
+      <c r="L19">
+        <v>966</v>
+      </c>
+      <c r="M19">
+        <v>0</v>
+      </c>
+      <c r="N19">
+        <v>0</v>
+      </c>
+      <c r="O19">
+        <v>0</v>
+      </c>
+      <c r="P19">
+        <v>4632</v>
+      </c>
+      <c r="Q19">
+        <v>95.8</v>
+      </c>
+      <c r="R19">
+        <v>941</v>
+      </c>
+      <c r="S19">
+        <v>1</v>
+      </c>
+      <c r="T19">
+        <v>0</v>
+      </c>
+      <c r="U19">
+        <v>101</v>
+      </c>
+      <c r="V19">
+        <v>1041</v>
+      </c>
+    </row>
+    <row r="20" spans="1:22">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20" t="s">
+        <v>31</v>
+      </c>
+      <c r="C20" t="s">
+        <v>47</v>
+      </c>
+      <c r="E20">
+        <v>0</v>
+      </c>
+      <c r="J20">
+        <v>1051</v>
+      </c>
+      <c r="K20">
+        <v>92</v>
+      </c>
+      <c r="L20">
+        <v>966</v>
+      </c>
+      <c r="M20">
+        <v>0</v>
+      </c>
+      <c r="N20">
+        <v>0</v>
+      </c>
+      <c r="O20">
+        <v>0</v>
+      </c>
+      <c r="P20">
+        <v>4286</v>
+      </c>
+      <c r="Q20">
+        <v>97.64</v>
+      </c>
+      <c r="R20">
+        <v>951</v>
+      </c>
+      <c r="S20">
+        <v>1</v>
+      </c>
+      <c r="T20">
+        <v>0</v>
+      </c>
+      <c r="U20">
+        <v>101</v>
+      </c>
+      <c r="V20">
+        <v>1051</v>
+      </c>
+    </row>
+    <row r="21" spans="1:22">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21" t="s">
+        <v>32</v>
+      </c>
+      <c r="C21" t="s">
+        <v>48</v>
+      </c>
+      <c r="E21">
+        <v>0</v>
+      </c>
+      <c r="J21">
+        <v>507</v>
+      </c>
+      <c r="K21">
+        <v>54</v>
+      </c>
+      <c r="L21">
+        <v>396</v>
+      </c>
+      <c r="M21">
+        <v>58</v>
+      </c>
+      <c r="N21">
+        <v>0</v>
+      </c>
+      <c r="O21">
+        <v>0</v>
+      </c>
+      <c r="P21">
+        <v>0</v>
+      </c>
+      <c r="Q21">
+        <v>61.84</v>
+      </c>
+      <c r="R21">
+        <v>504</v>
+      </c>
+      <c r="S21">
+        <v>0</v>
+      </c>
+      <c r="T21">
+        <v>0</v>
+      </c>
+      <c r="U21">
+        <v>3</v>
+      </c>
+      <c r="V21">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="22" spans="1:22">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22" t="s">
+        <v>32</v>
+      </c>
+      <c r="C22" t="s">
+        <v>48</v>
+      </c>
+      <c r="E22">
+        <v>0</v>
+      </c>
+      <c r="J22">
+        <v>507</v>
+      </c>
+      <c r="K22">
+        <v>54</v>
+      </c>
+      <c r="L22">
+        <v>396</v>
+      </c>
+      <c r="M22">
+        <v>58</v>
+      </c>
+      <c r="N22">
+        <v>0</v>
+      </c>
+      <c r="O22">
+        <v>0</v>
+      </c>
+      <c r="P22">
+        <v>0</v>
+      </c>
+      <c r="Q22">
+        <v>61.91</v>
+      </c>
+      <c r="R22">
+        <v>504</v>
+      </c>
+      <c r="S22">
+        <v>0</v>
+      </c>
+      <c r="T22">
+        <v>0</v>
+      </c>
+      <c r="U22">
+        <v>3</v>
+      </c>
+      <c r="V22">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="23" spans="1:22">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23" t="s">
+        <v>33</v>
+      </c>
+      <c r="C23" t="s">
+        <v>49</v>
+      </c>
+      <c r="E23">
+        <v>0</v>
+      </c>
+      <c r="J23">
+        <v>102</v>
+      </c>
+      <c r="K23">
+        <v>6</v>
+      </c>
+      <c r="L23">
+        <v>96</v>
+      </c>
+      <c r="M23">
+        <v>2</v>
+      </c>
+      <c r="N23">
+        <v>0</v>
+      </c>
+      <c r="O23">
+        <v>0</v>
+      </c>
+      <c r="P23">
+        <v>56506</v>
+      </c>
+      <c r="Q23">
+        <v>19.79</v>
+      </c>
+      <c r="R23">
+        <v>100</v>
+      </c>
+      <c r="S23">
+        <v>0</v>
+      </c>
+      <c r="T23">
+        <v>0</v>
+      </c>
+      <c r="U23">
+        <v>2</v>
+      </c>
+      <c r="V23">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="24" spans="1:22">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>33</v>
+      </c>
+      <c r="C24" t="s">
+        <v>49</v>
+      </c>
+      <c r="E24">
+        <v>0</v>
+      </c>
+      <c r="J24">
+        <v>102</v>
+      </c>
+      <c r="K24">
+        <v>6</v>
+      </c>
+      <c r="L24">
+        <v>96</v>
+      </c>
+      <c r="M24">
+        <v>2</v>
+      </c>
+      <c r="N24">
+        <v>0</v>
+      </c>
+      <c r="O24">
+        <v>0</v>
+      </c>
+      <c r="P24">
+        <v>165150</v>
+      </c>
+      <c r="Q24">
+        <v>19.88</v>
+      </c>
+      <c r="R24">
+        <v>100</v>
+      </c>
+      <c r="S24">
+        <v>0</v>
+      </c>
+      <c r="T24">
+        <v>0</v>
+      </c>
+      <c r="U24">
+        <v>2</v>
+      </c>
+      <c r="V24">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="25" spans="1:22">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>34</v>
+      </c>
+      <c r="C25" t="s">
+        <v>50</v>
+      </c>
+      <c r="E25">
+        <v>0</v>
+      </c>
+      <c r="J25">
+        <v>0</v>
+      </c>
+      <c r="R25">
+        <v>0</v>
+      </c>
+      <c r="S25">
+        <v>0</v>
+      </c>
+      <c r="T25">
+        <v>0</v>
+      </c>
+      <c r="U25">
+        <v>0</v>
+      </c>
+      <c r="V25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:22">
+      <c r="A26">
+        <v>25</v>
+      </c>
+      <c r="B26" t="s">
+        <v>35</v>
+      </c>
+      <c r="C26" t="s">
+        <v>51</v>
+      </c>
+      <c r="E26">
+        <v>0</v>
+      </c>
+      <c r="J26">
+        <v>140</v>
+      </c>
+      <c r="K26">
+        <v>18</v>
+      </c>
+      <c r="L26">
+        <v>124</v>
+      </c>
+      <c r="M26">
+        <v>0</v>
+      </c>
+      <c r="N26">
+        <v>0</v>
+      </c>
+      <c r="O26">
+        <v>0</v>
+      </c>
+      <c r="P26">
+        <v>120113</v>
+      </c>
+      <c r="Q26">
+        <v>42.13</v>
+      </c>
+      <c r="R26">
+        <v>122</v>
+      </c>
+      <c r="S26">
+        <v>0</v>
+      </c>
+      <c r="T26">
+        <v>0</v>
+      </c>
+      <c r="U26">
+        <v>18</v>
+      </c>
+      <c r="V26">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="27" spans="1:22">
+      <c r="A27">
+        <v>26</v>
+      </c>
+      <c r="B27" t="s">
+        <v>35</v>
+      </c>
+      <c r="C27" t="s">
+        <v>51</v>
+      </c>
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="J27">
+        <v>141</v>
+      </c>
+      <c r="K27">
+        <v>18</v>
+      </c>
+      <c r="L27">
+        <v>124</v>
+      </c>
+      <c r="M27">
+        <v>0</v>
+      </c>
+      <c r="N27">
+        <v>0</v>
+      </c>
+      <c r="O27">
+        <v>0</v>
+      </c>
+      <c r="P27">
+        <v>112992</v>
+      </c>
+      <c r="Q27">
+        <v>42.53</v>
+      </c>
+      <c r="R27">
+        <v>123</v>
+      </c>
+      <c r="S27">
+        <v>0</v>
+      </c>
+      <c r="T27">
+        <v>0</v>
+      </c>
+      <c r="U27">
+        <v>18</v>
+      </c>
+      <c r="V27">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="28" spans="1:22">
+      <c r="A28">
+        <v>27</v>
+      </c>
+      <c r="B28" t="s">
+        <v>36</v>
+      </c>
+      <c r="C28" t="s">
+        <v>52</v>
+      </c>
+      <c r="E28">
+        <v>0</v>
+      </c>
+      <c r="J28">
+        <v>883</v>
+      </c>
+      <c r="K28">
+        <v>154</v>
+      </c>
+      <c r="L28">
+        <v>630</v>
+      </c>
+      <c r="M28">
+        <v>105</v>
+      </c>
+      <c r="N28">
+        <v>0</v>
+      </c>
+      <c r="O28">
+        <v>0</v>
+      </c>
+      <c r="P28">
+        <v>26497</v>
+      </c>
+      <c r="Q28">
+        <v>75.81999999999999</v>
+      </c>
+      <c r="R28">
+        <v>787</v>
+      </c>
+      <c r="S28">
+        <v>4</v>
+      </c>
+      <c r="T28">
+        <v>0</v>
+      </c>
+      <c r="U28">
+        <v>100</v>
+      </c>
+      <c r="V28">
+        <v>883</v>
+      </c>
+    </row>
+    <row r="29" spans="1:22">
+      <c r="A29">
+        <v>28</v>
+      </c>
+      <c r="B29" t="s">
+        <v>36</v>
+      </c>
+      <c r="C29" t="s">
+        <v>52</v>
+      </c>
+      <c r="E29">
+        <v>0</v>
+      </c>
+      <c r="J29">
+        <v>884</v>
+      </c>
+      <c r="K29">
+        <v>154</v>
+      </c>
+      <c r="L29">
+        <v>630</v>
+      </c>
+      <c r="M29">
+        <v>105</v>
+      </c>
+      <c r="N29">
+        <v>0</v>
+      </c>
+      <c r="O29">
+        <v>0</v>
+      </c>
+      <c r="P29">
+        <v>23989</v>
+      </c>
+      <c r="Q29">
+        <v>76.12</v>
+      </c>
+      <c r="R29">
+        <v>788</v>
+      </c>
+      <c r="S29">
+        <v>4</v>
+      </c>
+      <c r="T29">
+        <v>0</v>
+      </c>
+      <c r="U29">
+        <v>100</v>
+      </c>
+      <c r="V29">
+        <v>884</v>
+      </c>
+    </row>
+    <row r="30" spans="1:22">
+      <c r="A30">
+        <v>29</v>
+      </c>
+      <c r="B30" t="s">
+        <v>37</v>
+      </c>
+      <c r="C30" t="s">
+        <v>53</v>
+      </c>
+      <c r="E30">
+        <v>0</v>
+      </c>
+      <c r="J30">
+        <v>82</v>
+      </c>
+      <c r="K30">
+        <v>83</v>
+      </c>
+      <c r="L30">
+        <v>0</v>
+      </c>
+      <c r="M30">
+        <v>0</v>
+      </c>
+      <c r="N30">
+        <v>0</v>
+      </c>
+      <c r="O30">
+        <v>0</v>
+      </c>
+      <c r="P30">
+        <v>109658</v>
+      </c>
+      <c r="Q30">
+        <v>5.74</v>
+      </c>
+      <c r="R30">
+        <v>46</v>
+      </c>
+      <c r="S30">
+        <v>0</v>
+      </c>
+      <c r="T30">
+        <v>0</v>
+      </c>
+      <c r="U30">
+        <v>36</v>
+      </c>
+      <c r="V30">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="31" spans="1:22">
+      <c r="A31">
+        <v>30</v>
+      </c>
+      <c r="B31" t="s">
+        <v>37</v>
+      </c>
+      <c r="C31" t="s">
+        <v>53</v>
+      </c>
+      <c r="E31">
+        <v>0</v>
+      </c>
+      <c r="J31">
+        <v>83</v>
+      </c>
+      <c r="K31">
+        <v>83</v>
+      </c>
+      <c r="L31">
+        <v>0</v>
+      </c>
+      <c r="M31">
+        <v>0</v>
+      </c>
+      <c r="N31">
+        <v>0</v>
+      </c>
+      <c r="O31">
+        <v>0</v>
+      </c>
+      <c r="P31">
+        <v>54783</v>
+      </c>
+      <c r="Q31">
+        <v>6.16</v>
+      </c>
+      <c r="R31">
+        <v>47</v>
+      </c>
+      <c r="S31">
+        <v>0</v>
+      </c>
+      <c r="T31">
+        <v>0</v>
+      </c>
+      <c r="U31">
+        <v>36</v>
+      </c>
+      <c r="V31">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="32" spans="1:22">
+      <c r="C32" t="s">
+        <v>54</v>
+      </c>
+      <c r="E32">
+        <v>0</v>
+      </c>
+      <c r="J32">
+        <v>21340</v>
+      </c>
+      <c r="K32">
+        <v>1232</v>
+      </c>
+      <c r="L32">
+        <v>8700</v>
+      </c>
+      <c r="M32">
+        <v>494</v>
+      </c>
+      <c r="N32">
+        <v>50</v>
+      </c>
+      <c r="O32">
+        <v>11180</v>
+      </c>
+      <c r="P32">
+        <v>1459525</v>
+      </c>
+      <c r="Q32">
+        <v>2326.51</v>
+      </c>
+      <c r="R32">
+        <v>19210</v>
+      </c>
+      <c r="S32">
+        <v>112</v>
+      </c>
+      <c r="T32">
+        <v>0</v>
+      </c>
+      <c r="U32">
+        <v>2242</v>
+      </c>
+      <c r="V32">
+        <v>21340</v>
       </c>
     </row>
   </sheetData>

--- a/backend/uploads/currentinventory_1_uk_january2026.xlsx
+++ b/backend/uploads/currentinventory_1_uk_january2026.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="55">
   <si>
     <t>Sno.</t>
   </si>
@@ -536,7 +536,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:V18"/>
+  <dimension ref="A1:V32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -624,7 +624,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>4450</v>
+        <v>4528</v>
       </c>
       <c r="K2">
         <v>12</v>
@@ -642,13 +642,13 @@
         <v>4537</v>
       </c>
       <c r="P2">
-        <v>4632</v>
+        <v>4286</v>
       </c>
       <c r="Q2">
-        <v>512.22</v>
+        <v>504.38</v>
       </c>
       <c r="R2">
-        <v>3980</v>
+        <v>4054</v>
       </c>
       <c r="S2">
         <v>58</v>
@@ -657,10 +657,10 @@
         <v>0</v>
       </c>
       <c r="U2">
-        <v>528</v>
+        <v>532</v>
       </c>
       <c r="V2">
-        <v>4450</v>
+        <v>4528</v>
       </c>
     </row>
     <row r="3" spans="1:22">
@@ -668,52 +668,52 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>830</v>
+        <v>4451</v>
       </c>
       <c r="K3">
-        <v>99</v>
+        <v>12</v>
       </c>
       <c r="L3">
-        <v>290</v>
+        <v>6</v>
       </c>
       <c r="M3">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="N3">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="O3">
-        <v>450</v>
+        <v>4537</v>
       </c>
       <c r="P3">
-        <v>26309</v>
+        <v>4632</v>
       </c>
       <c r="Q3">
-        <v>69.22</v>
+        <v>512.33</v>
       </c>
       <c r="R3">
-        <v>776</v>
+        <v>3977</v>
       </c>
       <c r="S3">
-        <v>3</v>
+        <v>58</v>
       </c>
       <c r="T3">
         <v>0</v>
       </c>
       <c r="U3">
-        <v>57</v>
+        <v>532</v>
       </c>
       <c r="V3">
-        <v>830</v>
+        <v>4451</v>
       </c>
     </row>
     <row r="4" spans="1:22">
@@ -721,40 +721,40 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>226</v>
+        <v>837</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>290</v>
       </c>
       <c r="M4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N4">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="O4">
-        <v>232</v>
+        <v>450</v>
       </c>
       <c r="P4">
-        <v>27792</v>
+        <v>33101</v>
       </c>
       <c r="Q4">
-        <v>30.09</v>
+        <v>70.56</v>
       </c>
       <c r="R4">
-        <v>209</v>
+        <v>783</v>
       </c>
       <c r="S4">
         <v>3</v>
@@ -763,10 +763,10 @@
         <v>0</v>
       </c>
       <c r="U4">
-        <v>20</v>
+        <v>57</v>
       </c>
       <c r="V4">
-        <v>226</v>
+        <v>837</v>
       </c>
     </row>
     <row r="5" spans="1:22">
@@ -774,52 +774,52 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C5" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>58</v>
+        <v>830</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>290</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N5">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="O5">
-        <v>58</v>
+        <v>450</v>
       </c>
       <c r="P5">
-        <v>90968</v>
+        <v>26309</v>
       </c>
       <c r="Q5">
-        <v>7.83</v>
+        <v>69.22</v>
       </c>
       <c r="R5">
-        <v>54</v>
+        <v>776</v>
       </c>
       <c r="S5">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="T5">
         <v>0</v>
       </c>
       <c r="U5">
-        <v>4</v>
+        <v>57</v>
       </c>
       <c r="V5">
-        <v>58</v>
+        <v>830</v>
       </c>
     </row>
     <row r="6" spans="1:22">
@@ -827,52 +827,52 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C6" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>258</v>
+        <v>229</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L6">
-        <v>262</v>
+        <v>0</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="N6">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O6">
-        <v>0</v>
+        <v>232</v>
       </c>
       <c r="P6">
-        <v>26497</v>
+        <v>46507</v>
       </c>
       <c r="Q6">
-        <v>31.38</v>
+        <v>30.83</v>
       </c>
       <c r="R6">
-        <v>226</v>
+        <v>212</v>
       </c>
       <c r="S6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="T6">
         <v>0</v>
       </c>
       <c r="U6">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="V6">
-        <v>258</v>
+        <v>229</v>
       </c>
     </row>
     <row r="7" spans="1:22">
@@ -880,52 +880,52 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>758</v>
+        <v>226</v>
       </c>
       <c r="K7">
-        <v>43</v>
+        <v>0</v>
       </c>
       <c r="L7">
-        <v>749</v>
+        <v>0</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="N7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O7">
-        <v>0</v>
+        <v>232</v>
       </c>
       <c r="P7">
-        <v>14548</v>
+        <v>27792</v>
       </c>
       <c r="Q7">
-        <v>87.83</v>
+        <v>31.11</v>
       </c>
       <c r="R7">
-        <v>644</v>
+        <v>209</v>
       </c>
       <c r="S7">
-        <v>25</v>
+        <v>3</v>
       </c>
       <c r="T7">
         <v>0</v>
       </c>
       <c r="U7">
-        <v>139</v>
+        <v>20</v>
       </c>
       <c r="V7">
-        <v>758</v>
+        <v>226</v>
       </c>
     </row>
     <row r="8" spans="1:22">
@@ -933,40 +933,40 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>315</v>
+        <v>58</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="M8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O8">
-        <v>313</v>
+        <v>58</v>
       </c>
       <c r="P8">
-        <v>156865</v>
+        <v>148209</v>
       </c>
       <c r="Q8">
-        <v>35.3</v>
+        <v>7.88</v>
       </c>
       <c r="R8">
-        <v>301</v>
+        <v>54</v>
       </c>
       <c r="S8">
         <v>0</v>
@@ -975,10 +975,10 @@
         <v>0</v>
       </c>
       <c r="U8">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="V8">
-        <v>315</v>
+        <v>58</v>
       </c>
     </row>
     <row r="9" spans="1:22">
@@ -986,19 +986,40 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>58</v>
+      </c>
+      <c r="K9">
+        <v>0</v>
+      </c>
+      <c r="L9">
+        <v>0</v>
+      </c>
+      <c r="M9">
+        <v>0</v>
+      </c>
+      <c r="N9">
+        <v>0</v>
+      </c>
+      <c r="O9">
+        <v>58</v>
+      </c>
+      <c r="P9">
+        <v>90968</v>
+      </c>
+      <c r="Q9">
+        <v>8</v>
       </c>
       <c r="R9">
-        <v>0</v>
+        <v>54</v>
       </c>
       <c r="S9">
         <v>0</v>
@@ -1007,10 +1028,10 @@
         <v>0</v>
       </c>
       <c r="U9">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="V9">
-        <v>0</v>
+        <v>58</v>
       </c>
     </row>
     <row r="10" spans="1:22">
@@ -1018,25 +1039,25 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C10" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>938</v>
+        <v>258</v>
       </c>
       <c r="K10">
-        <v>54</v>
+        <v>1</v>
       </c>
       <c r="L10">
-        <v>828</v>
+        <v>262</v>
       </c>
       <c r="M10">
-        <v>67</v>
+        <v>0</v>
       </c>
       <c r="N10">
         <v>0</v>
@@ -1045,25 +1066,25 @@
         <v>0</v>
       </c>
       <c r="P10">
-        <v>4632</v>
+        <v>23989</v>
       </c>
       <c r="Q10">
-        <v>111.84</v>
+        <v>31.77</v>
       </c>
       <c r="R10">
-        <v>874</v>
+        <v>227</v>
       </c>
       <c r="S10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T10">
         <v>0</v>
       </c>
       <c r="U10">
-        <v>66</v>
+        <v>32</v>
       </c>
       <c r="V10">
-        <v>938</v>
+        <v>258</v>
       </c>
     </row>
     <row r="11" spans="1:22">
@@ -1071,22 +1092,22 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="C11" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>1039</v>
+        <v>257</v>
       </c>
       <c r="K11">
-        <v>92</v>
+        <v>1</v>
       </c>
       <c r="L11">
-        <v>966</v>
+        <v>262</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -1098,25 +1119,25 @@
         <v>0</v>
       </c>
       <c r="P11">
-        <v>4632</v>
+        <v>26497</v>
       </c>
       <c r="Q11">
-        <v>118.95</v>
+        <v>31.25</v>
       </c>
       <c r="R11">
-        <v>944</v>
+        <v>226</v>
       </c>
       <c r="S11">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="T11">
         <v>0</v>
       </c>
       <c r="U11">
-        <v>101</v>
+        <v>32</v>
       </c>
       <c r="V11">
-        <v>1039</v>
+        <v>257</v>
       </c>
     </row>
     <row r="12" spans="1:22">
@@ -1124,25 +1145,25 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="C12" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>506</v>
+        <v>778</v>
       </c>
       <c r="K12">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="L12">
-        <v>396</v>
+        <v>749</v>
       </c>
       <c r="M12">
-        <v>58</v>
+        <v>0</v>
       </c>
       <c r="N12">
         <v>0</v>
@@ -1151,25 +1172,25 @@
         <v>0</v>
       </c>
       <c r="P12">
-        <v>0</v>
+        <v>10746</v>
       </c>
       <c r="Q12">
-        <v>61.82</v>
+        <v>91</v>
       </c>
       <c r="R12">
-        <v>503</v>
+        <v>662</v>
       </c>
       <c r="S12">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="T12">
         <v>0</v>
       </c>
       <c r="U12">
-        <v>3</v>
+        <v>142</v>
       </c>
       <c r="V12">
-        <v>506</v>
+        <v>778</v>
       </c>
     </row>
     <row r="13" spans="1:22">
@@ -1177,25 +1198,25 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="C13" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>102</v>
+        <v>758</v>
       </c>
       <c r="K13">
-        <v>6</v>
+        <v>43</v>
       </c>
       <c r="L13">
-        <v>96</v>
+        <v>749</v>
       </c>
       <c r="M13">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N13">
         <v>0</v>
@@ -1204,25 +1225,25 @@
         <v>0</v>
       </c>
       <c r="P13">
-        <v>56506</v>
+        <v>14548</v>
       </c>
       <c r="Q13">
-        <v>19.79</v>
+        <v>87.7</v>
       </c>
       <c r="R13">
-        <v>100</v>
+        <v>642</v>
       </c>
       <c r="S13">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="T13">
         <v>0</v>
       </c>
       <c r="U13">
-        <v>2</v>
+        <v>142</v>
       </c>
       <c r="V13">
-        <v>102</v>
+        <v>758</v>
       </c>
     </row>
     <row r="14" spans="1:22">
@@ -1230,19 +1251,40 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="C14" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>318</v>
+      </c>
+      <c r="K14">
+        <v>0</v>
+      </c>
+      <c r="L14">
+        <v>3</v>
+      </c>
+      <c r="M14">
+        <v>1</v>
+      </c>
+      <c r="N14">
+        <v>1</v>
+      </c>
+      <c r="O14">
+        <v>313</v>
+      </c>
+      <c r="P14">
+        <v>157552</v>
+      </c>
+      <c r="Q14">
+        <v>35.74</v>
       </c>
       <c r="R14">
-        <v>0</v>
+        <v>304</v>
       </c>
       <c r="S14">
         <v>0</v>
@@ -1251,10 +1293,10 @@
         <v>0</v>
       </c>
       <c r="U14">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="V14">
-        <v>0</v>
+        <v>318</v>
       </c>
     </row>
     <row r="15" spans="1:22">
@@ -1262,40 +1304,40 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="C15" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>140</v>
+        <v>315</v>
       </c>
       <c r="K15">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="L15">
-        <v>124</v>
+        <v>3</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O15">
-        <v>0</v>
+        <v>313</v>
       </c>
       <c r="P15">
-        <v>120113</v>
+        <v>156865</v>
       </c>
       <c r="Q15">
-        <v>42.13</v>
+        <v>35.69</v>
       </c>
       <c r="R15">
-        <v>122</v>
+        <v>301</v>
       </c>
       <c r="S15">
         <v>0</v>
@@ -1304,10 +1346,10 @@
         <v>0</v>
       </c>
       <c r="U15">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="V15">
-        <v>140</v>
+        <v>315</v>
       </c>
     </row>
     <row r="16" spans="1:22">
@@ -1315,52 +1357,31 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="C16" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>881</v>
-      </c>
-      <c r="K16">
-        <v>154</v>
-      </c>
-      <c r="L16">
-        <v>630</v>
-      </c>
-      <c r="M16">
-        <v>105</v>
-      </c>
-      <c r="N16">
-        <v>0</v>
-      </c>
-      <c r="O16">
-        <v>0</v>
-      </c>
-      <c r="P16">
-        <v>26497</v>
-      </c>
-      <c r="Q16">
-        <v>75.64</v>
+        <v>0</v>
       </c>
       <c r="R16">
-        <v>786</v>
+        <v>0</v>
       </c>
       <c r="S16">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="T16">
         <v>0</v>
       </c>
       <c r="U16">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="V16">
-        <v>881</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:22">
@@ -1368,99 +1389,820 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
+        <v>30</v>
+      </c>
+      <c r="C17" t="s">
+        <v>46</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>943</v>
+      </c>
+      <c r="K17">
+        <v>54</v>
+      </c>
+      <c r="L17">
+        <v>828</v>
+      </c>
+      <c r="M17">
+        <v>67</v>
+      </c>
+      <c r="N17">
+        <v>0</v>
+      </c>
+      <c r="O17">
+        <v>0</v>
+      </c>
+      <c r="P17">
+        <v>4286</v>
+      </c>
+      <c r="Q17">
+        <v>112.31</v>
+      </c>
+      <c r="R17">
+        <v>878</v>
+      </c>
+      <c r="S17">
+        <v>2</v>
+      </c>
+      <c r="T17">
+        <v>0</v>
+      </c>
+      <c r="U17">
+        <v>67</v>
+      </c>
+      <c r="V17">
+        <v>943</v>
+      </c>
+    </row>
+    <row r="18" spans="1:22">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18" t="s">
+        <v>30</v>
+      </c>
+      <c r="C18" t="s">
+        <v>46</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <v>938</v>
+      </c>
+      <c r="K18">
+        <v>54</v>
+      </c>
+      <c r="L18">
+        <v>828</v>
+      </c>
+      <c r="M18">
+        <v>67</v>
+      </c>
+      <c r="N18">
+        <v>0</v>
+      </c>
+      <c r="O18">
+        <v>0</v>
+      </c>
+      <c r="P18">
+        <v>4632</v>
+      </c>
+      <c r="Q18">
+        <v>111.84</v>
+      </c>
+      <c r="R18">
+        <v>873</v>
+      </c>
+      <c r="S18">
+        <v>2</v>
+      </c>
+      <c r="T18">
+        <v>0</v>
+      </c>
+      <c r="U18">
+        <v>67</v>
+      </c>
+      <c r="V18">
+        <v>938</v>
+      </c>
+    </row>
+    <row r="19" spans="1:22">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19" t="s">
+        <v>31</v>
+      </c>
+      <c r="C19" t="s">
+        <v>47</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="J19">
+        <v>1051</v>
+      </c>
+      <c r="K19">
+        <v>92</v>
+      </c>
+      <c r="L19">
+        <v>966</v>
+      </c>
+      <c r="M19">
+        <v>0</v>
+      </c>
+      <c r="N19">
+        <v>0</v>
+      </c>
+      <c r="O19">
+        <v>0</v>
+      </c>
+      <c r="P19">
+        <v>4286</v>
+      </c>
+      <c r="Q19">
+        <v>97.64</v>
+      </c>
+      <c r="R19">
+        <v>960</v>
+      </c>
+      <c r="S19">
+        <v>6</v>
+      </c>
+      <c r="T19">
+        <v>0</v>
+      </c>
+      <c r="U19">
+        <v>97</v>
+      </c>
+      <c r="V19">
+        <v>1051</v>
+      </c>
+    </row>
+    <row r="20" spans="1:22">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20" t="s">
+        <v>31</v>
+      </c>
+      <c r="C20" t="s">
+        <v>47</v>
+      </c>
+      <c r="E20">
+        <v>0</v>
+      </c>
+      <c r="J20">
+        <v>1039</v>
+      </c>
+      <c r="K20">
+        <v>92</v>
+      </c>
+      <c r="L20">
+        <v>966</v>
+      </c>
+      <c r="M20">
+        <v>0</v>
+      </c>
+      <c r="N20">
+        <v>0</v>
+      </c>
+      <c r="O20">
+        <v>0</v>
+      </c>
+      <c r="P20">
+        <v>4632</v>
+      </c>
+      <c r="Q20">
+        <v>118.95</v>
+      </c>
+      <c r="R20">
+        <v>948</v>
+      </c>
+      <c r="S20">
+        <v>6</v>
+      </c>
+      <c r="T20">
+        <v>0</v>
+      </c>
+      <c r="U20">
+        <v>97</v>
+      </c>
+      <c r="V20">
+        <v>1039</v>
+      </c>
+    </row>
+    <row r="21" spans="1:22">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21" t="s">
+        <v>32</v>
+      </c>
+      <c r="C21" t="s">
+        <v>48</v>
+      </c>
+      <c r="E21">
+        <v>0</v>
+      </c>
+      <c r="J21">
+        <v>507</v>
+      </c>
+      <c r="K21">
+        <v>54</v>
+      </c>
+      <c r="L21">
+        <v>396</v>
+      </c>
+      <c r="M21">
+        <v>58</v>
+      </c>
+      <c r="N21">
+        <v>0</v>
+      </c>
+      <c r="O21">
+        <v>0</v>
+      </c>
+      <c r="P21">
+        <v>0</v>
+      </c>
+      <c r="Q21">
+        <v>61.91</v>
+      </c>
+      <c r="R21">
+        <v>504</v>
+      </c>
+      <c r="S21">
+        <v>0</v>
+      </c>
+      <c r="T21">
+        <v>0</v>
+      </c>
+      <c r="U21">
+        <v>3</v>
+      </c>
+      <c r="V21">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="22" spans="1:22">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22" t="s">
+        <v>32</v>
+      </c>
+      <c r="C22" t="s">
+        <v>48</v>
+      </c>
+      <c r="E22">
+        <v>0</v>
+      </c>
+      <c r="J22">
+        <v>505</v>
+      </c>
+      <c r="K22">
+        <v>54</v>
+      </c>
+      <c r="L22">
+        <v>396</v>
+      </c>
+      <c r="M22">
+        <v>58</v>
+      </c>
+      <c r="N22">
+        <v>0</v>
+      </c>
+      <c r="O22">
+        <v>0</v>
+      </c>
+      <c r="P22">
+        <v>0</v>
+      </c>
+      <c r="Q22">
+        <v>61.82</v>
+      </c>
+      <c r="R22">
+        <v>502</v>
+      </c>
+      <c r="S22">
+        <v>0</v>
+      </c>
+      <c r="T22">
+        <v>0</v>
+      </c>
+      <c r="U22">
+        <v>3</v>
+      </c>
+      <c r="V22">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="23" spans="1:22">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23" t="s">
+        <v>33</v>
+      </c>
+      <c r="C23" t="s">
+        <v>49</v>
+      </c>
+      <c r="E23">
+        <v>0</v>
+      </c>
+      <c r="J23">
+        <v>102</v>
+      </c>
+      <c r="K23">
+        <v>6</v>
+      </c>
+      <c r="L23">
+        <v>96</v>
+      </c>
+      <c r="M23">
+        <v>2</v>
+      </c>
+      <c r="N23">
+        <v>0</v>
+      </c>
+      <c r="O23">
+        <v>0</v>
+      </c>
+      <c r="P23">
+        <v>165150</v>
+      </c>
+      <c r="Q23">
+        <v>19.88</v>
+      </c>
+      <c r="R23">
+        <v>100</v>
+      </c>
+      <c r="S23">
+        <v>0</v>
+      </c>
+      <c r="T23">
+        <v>0</v>
+      </c>
+      <c r="U23">
+        <v>2</v>
+      </c>
+      <c r="V23">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="24" spans="1:22">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>33</v>
+      </c>
+      <c r="C24" t="s">
+        <v>49</v>
+      </c>
+      <c r="E24">
+        <v>0</v>
+      </c>
+      <c r="J24">
+        <v>102</v>
+      </c>
+      <c r="K24">
+        <v>6</v>
+      </c>
+      <c r="L24">
+        <v>96</v>
+      </c>
+      <c r="M24">
+        <v>2</v>
+      </c>
+      <c r="N24">
+        <v>0</v>
+      </c>
+      <c r="O24">
+        <v>0</v>
+      </c>
+      <c r="P24">
+        <v>56506</v>
+      </c>
+      <c r="Q24">
+        <v>19.92</v>
+      </c>
+      <c r="R24">
+        <v>100</v>
+      </c>
+      <c r="S24">
+        <v>0</v>
+      </c>
+      <c r="T24">
+        <v>0</v>
+      </c>
+      <c r="U24">
+        <v>2</v>
+      </c>
+      <c r="V24">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="25" spans="1:22">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>34</v>
+      </c>
+      <c r="C25" t="s">
+        <v>50</v>
+      </c>
+      <c r="E25">
+        <v>0</v>
+      </c>
+      <c r="J25">
+        <v>0</v>
+      </c>
+      <c r="R25">
+        <v>0</v>
+      </c>
+      <c r="S25">
+        <v>0</v>
+      </c>
+      <c r="T25">
+        <v>0</v>
+      </c>
+      <c r="U25">
+        <v>0</v>
+      </c>
+      <c r="V25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:22">
+      <c r="A26">
+        <v>25</v>
+      </c>
+      <c r="B26" t="s">
+        <v>35</v>
+      </c>
+      <c r="C26" t="s">
+        <v>51</v>
+      </c>
+      <c r="E26">
+        <v>0</v>
+      </c>
+      <c r="J26">
+        <v>141</v>
+      </c>
+      <c r="K26">
+        <v>18</v>
+      </c>
+      <c r="L26">
+        <v>124</v>
+      </c>
+      <c r="M26">
+        <v>0</v>
+      </c>
+      <c r="N26">
+        <v>0</v>
+      </c>
+      <c r="O26">
+        <v>0</v>
+      </c>
+      <c r="P26">
+        <v>112992</v>
+      </c>
+      <c r="Q26">
+        <v>42.53</v>
+      </c>
+      <c r="R26">
+        <v>128</v>
+      </c>
+      <c r="S26">
+        <v>0</v>
+      </c>
+      <c r="T26">
+        <v>0</v>
+      </c>
+      <c r="U26">
+        <v>13</v>
+      </c>
+      <c r="V26">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="27" spans="1:22">
+      <c r="A27">
+        <v>26</v>
+      </c>
+      <c r="B27" t="s">
+        <v>35</v>
+      </c>
+      <c r="C27" t="s">
+        <v>51</v>
+      </c>
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="J27">
+        <v>140</v>
+      </c>
+      <c r="K27">
+        <v>18</v>
+      </c>
+      <c r="L27">
+        <v>124</v>
+      </c>
+      <c r="M27">
+        <v>0</v>
+      </c>
+      <c r="N27">
+        <v>0</v>
+      </c>
+      <c r="O27">
+        <v>0</v>
+      </c>
+      <c r="P27">
+        <v>120113</v>
+      </c>
+      <c r="Q27">
+        <v>42.13</v>
+      </c>
+      <c r="R27">
+        <v>127</v>
+      </c>
+      <c r="S27">
+        <v>0</v>
+      </c>
+      <c r="T27">
+        <v>0</v>
+      </c>
+      <c r="U27">
+        <v>13</v>
+      </c>
+      <c r="V27">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="28" spans="1:22">
+      <c r="A28">
+        <v>27</v>
+      </c>
+      <c r="B28" t="s">
+        <v>36</v>
+      </c>
+      <c r="C28" t="s">
+        <v>52</v>
+      </c>
+      <c r="E28">
+        <v>0</v>
+      </c>
+      <c r="J28">
+        <v>884</v>
+      </c>
+      <c r="K28">
+        <v>154</v>
+      </c>
+      <c r="L28">
+        <v>630</v>
+      </c>
+      <c r="M28">
+        <v>105</v>
+      </c>
+      <c r="N28">
+        <v>0</v>
+      </c>
+      <c r="O28">
+        <v>0</v>
+      </c>
+      <c r="P28">
+        <v>23989</v>
+      </c>
+      <c r="Q28">
+        <v>76.12</v>
+      </c>
+      <c r="R28">
+        <v>790</v>
+      </c>
+      <c r="S28">
+        <v>5</v>
+      </c>
+      <c r="T28">
+        <v>0</v>
+      </c>
+      <c r="U28">
+        <v>99</v>
+      </c>
+      <c r="V28">
+        <v>884</v>
+      </c>
+    </row>
+    <row r="29" spans="1:22">
+      <c r="A29">
+        <v>28</v>
+      </c>
+      <c r="B29" t="s">
+        <v>36</v>
+      </c>
+      <c r="C29" t="s">
+        <v>52</v>
+      </c>
+      <c r="E29">
+        <v>0</v>
+      </c>
+      <c r="J29">
+        <v>881</v>
+      </c>
+      <c r="K29">
+        <v>154</v>
+      </c>
+      <c r="L29">
+        <v>630</v>
+      </c>
+      <c r="M29">
+        <v>105</v>
+      </c>
+      <c r="N29">
+        <v>0</v>
+      </c>
+      <c r="O29">
+        <v>0</v>
+      </c>
+      <c r="P29">
+        <v>26497</v>
+      </c>
+      <c r="Q29">
+        <v>75.64</v>
+      </c>
+      <c r="R29">
+        <v>787</v>
+      </c>
+      <c r="S29">
+        <v>5</v>
+      </c>
+      <c r="T29">
+        <v>0</v>
+      </c>
+      <c r="U29">
+        <v>99</v>
+      </c>
+      <c r="V29">
+        <v>881</v>
+      </c>
+    </row>
+    <row r="30" spans="1:22">
+      <c r="A30">
+        <v>29</v>
+      </c>
+      <c r="B30" t="s">
         <v>37</v>
       </c>
-      <c r="C17" t="s">
+      <c r="C30" t="s">
         <v>53</v>
       </c>
-      <c r="E17">
-        <v>0</v>
-      </c>
-      <c r="J17">
+      <c r="E30">
+        <v>0</v>
+      </c>
+      <c r="J30">
+        <v>83</v>
+      </c>
+      <c r="K30">
+        <v>83</v>
+      </c>
+      <c r="L30">
+        <v>0</v>
+      </c>
+      <c r="M30">
+        <v>0</v>
+      </c>
+      <c r="N30">
+        <v>0</v>
+      </c>
+      <c r="O30">
+        <v>0</v>
+      </c>
+      <c r="P30">
+        <v>54783</v>
+      </c>
+      <c r="Q30">
+        <v>6.16</v>
+      </c>
+      <c r="R30">
+        <v>47</v>
+      </c>
+      <c r="S30">
+        <v>0</v>
+      </c>
+      <c r="T30">
+        <v>0</v>
+      </c>
+      <c r="U30">
+        <v>36</v>
+      </c>
+      <c r="V30">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="31" spans="1:22">
+      <c r="A31">
+        <v>30</v>
+      </c>
+      <c r="B31" t="s">
+        <v>37</v>
+      </c>
+      <c r="C31" t="s">
+        <v>53</v>
+      </c>
+      <c r="E31">
+        <v>0</v>
+      </c>
+      <c r="J31">
         <v>81</v>
       </c>
-      <c r="K17">
+      <c r="K31">
         <v>83</v>
       </c>
-      <c r="L17">
-        <v>0</v>
-      </c>
-      <c r="M17">
-        <v>0</v>
-      </c>
-      <c r="N17">
-        <v>0</v>
-      </c>
-      <c r="O17">
-        <v>0</v>
-      </c>
-      <c r="P17">
+      <c r="L31">
+        <v>0</v>
+      </c>
+      <c r="M31">
+        <v>0</v>
+      </c>
+      <c r="N31">
+        <v>0</v>
+      </c>
+      <c r="O31">
+        <v>0</v>
+      </c>
+      <c r="P31">
         <v>109658</v>
       </c>
-      <c r="Q17">
+      <c r="Q31">
         <v>5.64</v>
       </c>
-      <c r="R17">
+      <c r="R31">
         <v>45</v>
       </c>
-      <c r="S17">
-        <v>0</v>
-      </c>
-      <c r="T17">
-        <v>0</v>
-      </c>
-      <c r="U17">
+      <c r="S31">
+        <v>0</v>
+      </c>
+      <c r="T31">
+        <v>0</v>
+      </c>
+      <c r="U31">
         <v>36</v>
       </c>
-      <c r="V17">
+      <c r="V31">
         <v>81</v>
       </c>
     </row>
-    <row r="18" spans="1:22">
-      <c r="C18" t="s">
+    <row r="32" spans="1:22">
+      <c r="C32" t="s">
         <v>54</v>
       </c>
-      <c r="E18">
-        <v>0</v>
-      </c>
-      <c r="J18">
-        <v>10582</v>
-      </c>
-      <c r="K18">
-        <v>616</v>
-      </c>
-      <c r="L18">
-        <v>4350</v>
-      </c>
-      <c r="M18">
-        <v>247</v>
-      </c>
-      <c r="N18">
-        <v>25</v>
-      </c>
-      <c r="O18">
-        <v>5590</v>
-      </c>
-      <c r="P18">
-        <v>669649</v>
-      </c>
-      <c r="Q18">
-        <v>1209.68</v>
-      </c>
-      <c r="R18">
-        <v>9564</v>
-      </c>
-      <c r="S18">
-        <v>103</v>
-      </c>
-      <c r="T18">
-        <v>0</v>
-      </c>
-      <c r="U18">
-        <v>1121</v>
-      </c>
-      <c r="V18">
-        <v>10582</v>
+      <c r="E32">
+        <v>0</v>
+      </c>
+      <c r="J32">
+        <v>21298</v>
+      </c>
+      <c r="K32">
+        <v>1232</v>
+      </c>
+      <c r="L32">
+        <v>8700</v>
+      </c>
+      <c r="M32">
+        <v>494</v>
+      </c>
+      <c r="N32">
+        <v>50</v>
+      </c>
+      <c r="O32">
+        <v>11180</v>
+      </c>
+      <c r="P32">
+        <v>1459525</v>
+      </c>
+      <c r="Q32">
+        <v>2399.95</v>
+      </c>
+      <c r="R32">
+        <v>19270</v>
+      </c>
+      <c r="S32">
+        <v>208</v>
+      </c>
+      <c r="T32">
+        <v>0</v>
+      </c>
+      <c r="U32">
+        <v>2236</v>
+      </c>
+      <c r="V32">
+        <v>21298</v>
       </c>
     </row>
   </sheetData>

--- a/backend/uploads/currentinventory_1_uk_january2026.xlsx
+++ b/backend/uploads/currentinventory_1_uk_january2026.xlsx
@@ -698,7 +698,7 @@
         <v>4632</v>
       </c>
       <c r="Q3">
-        <v>512.33</v>
+        <v>512.22</v>
       </c>
       <c r="R3">
         <v>3977</v>
@@ -783,7 +783,7 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="K5">
         <v>99</v>
@@ -804,10 +804,10 @@
         <v>26309</v>
       </c>
       <c r="Q5">
-        <v>69.22</v>
+        <v>77.86</v>
       </c>
       <c r="R5">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="S5">
         <v>3</v>
@@ -819,7 +819,7 @@
         <v>57</v>
       </c>
       <c r="V5">
-        <v>830</v>
+        <v>829</v>
       </c>
     </row>
     <row r="6" spans="1:22">
@@ -1207,7 +1207,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>758</v>
+        <v>755</v>
       </c>
       <c r="K13">
         <v>43</v>
@@ -1228,10 +1228,10 @@
         <v>14548</v>
       </c>
       <c r="Q13">
-        <v>87.7</v>
+        <v>87.58</v>
       </c>
       <c r="R13">
-        <v>642</v>
+        <v>639</v>
       </c>
       <c r="S13">
         <v>26</v>
@@ -1243,7 +1243,7 @@
         <v>142</v>
       </c>
       <c r="V13">
-        <v>758</v>
+        <v>755</v>
       </c>
     </row>
     <row r="14" spans="1:22">
@@ -1451,7 +1451,7 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>938</v>
+        <v>937</v>
       </c>
       <c r="K18">
         <v>54</v>
@@ -1469,13 +1469,13 @@
         <v>0</v>
       </c>
       <c r="P18">
-        <v>4632</v>
+        <v>3922</v>
       </c>
       <c r="Q18">
         <v>111.84</v>
       </c>
       <c r="R18">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="S18">
         <v>2</v>
@@ -1487,7 +1487,7 @@
         <v>67</v>
       </c>
       <c r="V18">
-        <v>938</v>
+        <v>937</v>
       </c>
     </row>
     <row r="19" spans="1:22">
@@ -1684,7 +1684,7 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>61.82</v>
+        <v>61.7</v>
       </c>
       <c r="R22">
         <v>502</v>
@@ -2140,7 +2140,7 @@
         <v>109658</v>
       </c>
       <c r="Q31">
-        <v>5.64</v>
+        <v>7.49</v>
       </c>
       <c r="R31">
         <v>45</v>
@@ -2166,7 +2166,7 @@
         <v>0</v>
       </c>
       <c r="J32">
-        <v>21298</v>
+        <v>21293</v>
       </c>
       <c r="K32">
         <v>1232</v>
@@ -2184,13 +2184,13 @@
         <v>11180</v>
       </c>
       <c r="P32">
-        <v>1459525</v>
+        <v>1458815</v>
       </c>
       <c r="Q32">
-        <v>2399.95</v>
+        <v>2410.09</v>
       </c>
       <c r="R32">
-        <v>19270</v>
+        <v>19265</v>
       </c>
       <c r="S32">
         <v>208</v>
@@ -2202,7 +2202,7 @@
         <v>2236</v>
       </c>
       <c r="V32">
-        <v>21298</v>
+        <v>21293</v>
       </c>
     </row>
   </sheetData>

--- a/backend/uploads/currentinventory_1_uk_january2026.xlsx
+++ b/backend/uploads/currentinventory_1_uk_january2026.xlsx
@@ -677,7 +677,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>4451</v>
+        <v>4450</v>
       </c>
       <c r="K3">
         <v>12</v>
@@ -698,10 +698,10 @@
         <v>4632</v>
       </c>
       <c r="Q3">
-        <v>512.22</v>
+        <v>512.1</v>
       </c>
       <c r="R3">
-        <v>3977</v>
+        <v>3976</v>
       </c>
       <c r="S3">
         <v>58</v>
@@ -713,7 +713,7 @@
         <v>532</v>
       </c>
       <c r="V3">
-        <v>4451</v>
+        <v>4450</v>
       </c>
     </row>
     <row r="4" spans="1:22">
@@ -754,10 +754,10 @@
         <v>70.56</v>
       </c>
       <c r="R4">
-        <v>783</v>
+        <v>784</v>
       </c>
       <c r="S4">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="T4">
         <v>0</v>
@@ -801,16 +801,16 @@
         <v>450</v>
       </c>
       <c r="P5">
-        <v>26309</v>
+        <v>32043</v>
       </c>
       <c r="Q5">
         <v>77.86</v>
       </c>
       <c r="R5">
-        <v>775</v>
+        <v>776</v>
       </c>
       <c r="S5">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="T5">
         <v>0</v>
@@ -907,7 +907,7 @@
         <v>232</v>
       </c>
       <c r="P7">
-        <v>27792</v>
+        <v>44303</v>
       </c>
       <c r="Q7">
         <v>31.11</v>
@@ -1013,7 +1013,7 @@
         <v>58</v>
       </c>
       <c r="P9">
-        <v>90968</v>
+        <v>97956</v>
       </c>
       <c r="Q9">
         <v>8</v>
@@ -1472,7 +1472,7 @@
         <v>3922</v>
       </c>
       <c r="Q18">
-        <v>111.84</v>
+        <v>111.72</v>
       </c>
       <c r="R18">
         <v>872</v>
@@ -2166,7 +2166,7 @@
         <v>0</v>
       </c>
       <c r="J32">
-        <v>21293</v>
+        <v>21292</v>
       </c>
       <c r="K32">
         <v>1232</v>
@@ -2184,16 +2184,16 @@
         <v>11180</v>
       </c>
       <c r="P32">
-        <v>1458815</v>
+        <v>1488048</v>
       </c>
       <c r="Q32">
-        <v>2410.09</v>
+        <v>2409.85</v>
       </c>
       <c r="R32">
-        <v>19265</v>
+        <v>19266</v>
       </c>
       <c r="S32">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="T32">
         <v>0</v>
@@ -2202,7 +2202,7 @@
         <v>2236</v>
       </c>
       <c r="V32">
-        <v>21293</v>
+        <v>21292</v>
       </c>
     </row>
   </sheetData>

--- a/backend/uploads/currentinventory_1_uk_january2026.xlsx
+++ b/backend/uploads/currentinventory_1_uk_january2026.xlsx
@@ -624,7 +624,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>4450</v>
+        <v>4451</v>
       </c>
       <c r="K2">
         <v>12</v>
@@ -648,7 +648,7 @@
         <v>512.22</v>
       </c>
       <c r="R2">
-        <v>3980</v>
+        <v>3981</v>
       </c>
       <c r="S2">
         <v>58</v>
@@ -660,7 +660,7 @@
         <v>528</v>
       </c>
       <c r="V2">
-        <v>4450</v>
+        <v>4451</v>
       </c>
     </row>
     <row r="3" spans="1:22">
@@ -677,7 +677,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="K3">
         <v>99</v>
@@ -698,10 +698,10 @@
         <v>26309</v>
       </c>
       <c r="Q3">
-        <v>69.22</v>
+        <v>77.86</v>
       </c>
       <c r="R3">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="S3">
         <v>3</v>
@@ -713,7 +713,7 @@
         <v>57</v>
       </c>
       <c r="V3">
-        <v>830</v>
+        <v>829</v>
       </c>
     </row>
     <row r="4" spans="1:22">
@@ -751,7 +751,7 @@
         <v>27792</v>
       </c>
       <c r="Q4">
-        <v>30.09</v>
+        <v>31.11</v>
       </c>
       <c r="R4">
         <v>209</v>
@@ -804,7 +804,7 @@
         <v>90968</v>
       </c>
       <c r="Q5">
-        <v>7.83</v>
+        <v>8</v>
       </c>
       <c r="R5">
         <v>54</v>
@@ -836,7 +836,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="K6">
         <v>1</v>
@@ -857,10 +857,10 @@
         <v>26497</v>
       </c>
       <c r="Q6">
-        <v>31.38</v>
+        <v>31.25</v>
       </c>
       <c r="R6">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="S6">
         <v>1</v>
@@ -872,7 +872,7 @@
         <v>33</v>
       </c>
       <c r="V6">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="7" spans="1:22">
@@ -889,7 +889,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>758</v>
+        <v>756</v>
       </c>
       <c r="K7">
         <v>43</v>
@@ -910,13 +910,13 @@
         <v>14548</v>
       </c>
       <c r="Q7">
-        <v>87.83</v>
+        <v>87.7</v>
       </c>
       <c r="R7">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="S7">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="T7">
         <v>0</v>
@@ -925,7 +925,7 @@
         <v>139</v>
       </c>
       <c r="V7">
-        <v>758</v>
+        <v>756</v>
       </c>
     </row>
     <row r="8" spans="1:22">
@@ -963,7 +963,7 @@
         <v>156865</v>
       </c>
       <c r="Q8">
-        <v>35.3</v>
+        <v>35.69</v>
       </c>
       <c r="R8">
         <v>301</v>
@@ -1027,7 +1027,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>938</v>
+        <v>937</v>
       </c>
       <c r="K10">
         <v>54</v>
@@ -1051,7 +1051,7 @@
         <v>111.84</v>
       </c>
       <c r="R10">
-        <v>874</v>
+        <v>873</v>
       </c>
       <c r="S10">
         <v>2</v>
@@ -1063,7 +1063,7 @@
         <v>66</v>
       </c>
       <c r="V10">
-        <v>938</v>
+        <v>937</v>
       </c>
     </row>
     <row r="11" spans="1:22">
@@ -1133,7 +1133,7 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="K12">
         <v>54</v>
@@ -1157,7 +1157,7 @@
         <v>61.82</v>
       </c>
       <c r="R12">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="S12">
         <v>0</v>
@@ -1169,7 +1169,7 @@
         <v>3</v>
       </c>
       <c r="V12">
-        <v>506</v>
+        <v>505</v>
       </c>
     </row>
     <row r="13" spans="1:22">
@@ -1207,7 +1207,7 @@
         <v>56506</v>
       </c>
       <c r="Q13">
-        <v>19.79</v>
+        <v>19.92</v>
       </c>
       <c r="R13">
         <v>100</v>
@@ -1398,7 +1398,7 @@
         <v>109658</v>
       </c>
       <c r="Q17">
-        <v>5.64</v>
+        <v>7.49</v>
       </c>
       <c r="R17">
         <v>45</v>
@@ -1424,7 +1424,7 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>10582</v>
+        <v>10577</v>
       </c>
       <c r="K18">
         <v>616</v>
@@ -1445,13 +1445,13 @@
         <v>669649</v>
       </c>
       <c r="Q18">
-        <v>1209.68</v>
+        <v>1221.62</v>
       </c>
       <c r="R18">
-        <v>9564</v>
+        <v>9560</v>
       </c>
       <c r="S18">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="T18">
         <v>0</v>
@@ -1460,7 +1460,7 @@
         <v>1121</v>
       </c>
       <c r="V18">
-        <v>10582</v>
+        <v>10577</v>
       </c>
     </row>
   </sheetData>

--- a/backend/uploads/currentinventory_1_uk_january2026.xlsx
+++ b/backend/uploads/currentinventory_1_uk_january2026.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="55">
   <si>
     <t>Sno.</t>
   </si>
@@ -536,7 +536,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:V32"/>
+  <dimension ref="A1:V18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -624,7 +624,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>4528</v>
+        <v>4451</v>
       </c>
       <c r="K2">
         <v>12</v>
@@ -642,13 +642,13 @@
         <v>4537</v>
       </c>
       <c r="P2">
-        <v>4286</v>
+        <v>4632</v>
       </c>
       <c r="Q2">
-        <v>504.38</v>
+        <v>512.33</v>
       </c>
       <c r="R2">
-        <v>4054</v>
+        <v>3981</v>
       </c>
       <c r="S2">
         <v>58</v>
@@ -657,10 +657,10 @@
         <v>0</v>
       </c>
       <c r="U2">
-        <v>532</v>
+        <v>528</v>
       </c>
       <c r="V2">
-        <v>4528</v>
+        <v>4451</v>
       </c>
     </row>
     <row r="3" spans="1:22">
@@ -668,52 +668,52 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C3" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>4451</v>
+        <v>829</v>
       </c>
       <c r="K3">
-        <v>12</v>
+        <v>99</v>
       </c>
       <c r="L3">
+        <v>290</v>
+      </c>
+      <c r="M3">
+        <v>1</v>
+      </c>
+      <c r="N3">
         <v>6</v>
       </c>
-      <c r="M3">
-        <v>10</v>
-      </c>
-      <c r="N3">
-        <v>16</v>
-      </c>
       <c r="O3">
-        <v>4537</v>
+        <v>450</v>
       </c>
       <c r="P3">
-        <v>4632</v>
+        <v>26309</v>
       </c>
       <c r="Q3">
-        <v>512.33</v>
+        <v>77.86</v>
       </c>
       <c r="R3">
-        <v>3977</v>
+        <v>775</v>
       </c>
       <c r="S3">
-        <v>58</v>
+        <v>3</v>
       </c>
       <c r="T3">
         <v>0</v>
       </c>
       <c r="U3">
-        <v>532</v>
+        <v>57</v>
       </c>
       <c r="V3">
-        <v>4451</v>
+        <v>829</v>
       </c>
     </row>
     <row r="4" spans="1:22">
@@ -721,40 +721,40 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>837</v>
+        <v>226</v>
       </c>
       <c r="K4">
-        <v>99</v>
+        <v>0</v>
       </c>
       <c r="L4">
-        <v>290</v>
+        <v>0</v>
       </c>
       <c r="M4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N4">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="O4">
-        <v>450</v>
+        <v>232</v>
       </c>
       <c r="P4">
-        <v>33101</v>
+        <v>27792</v>
       </c>
       <c r="Q4">
-        <v>70.56</v>
+        <v>31.11</v>
       </c>
       <c r="R4">
-        <v>783</v>
+        <v>209</v>
       </c>
       <c r="S4">
         <v>3</v>
@@ -763,10 +763,10 @@
         <v>0</v>
       </c>
       <c r="U4">
-        <v>57</v>
+        <v>20</v>
       </c>
       <c r="V4">
-        <v>837</v>
+        <v>226</v>
       </c>
     </row>
     <row r="5" spans="1:22">
@@ -774,52 +774,52 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C5" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>830</v>
+        <v>58</v>
       </c>
       <c r="K5">
-        <v>99</v>
+        <v>0</v>
       </c>
       <c r="L5">
-        <v>290</v>
+        <v>0</v>
       </c>
       <c r="M5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N5">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="O5">
-        <v>450</v>
+        <v>58</v>
       </c>
       <c r="P5">
-        <v>26309</v>
+        <v>90968</v>
       </c>
       <c r="Q5">
-        <v>69.22</v>
+        <v>8</v>
       </c>
       <c r="R5">
-        <v>776</v>
+        <v>54</v>
       </c>
       <c r="S5">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="T5">
         <v>0</v>
       </c>
       <c r="U5">
-        <v>57</v>
+        <v>4</v>
       </c>
       <c r="V5">
-        <v>830</v>
+        <v>58</v>
       </c>
     </row>
     <row r="6" spans="1:22">
@@ -827,52 +827,52 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C6" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>229</v>
+        <v>257</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>262</v>
       </c>
       <c r="M6">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="N6">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O6">
-        <v>232</v>
+        <v>0</v>
       </c>
       <c r="P6">
-        <v>46507</v>
+        <v>26497</v>
       </c>
       <c r="Q6">
-        <v>30.83</v>
+        <v>31.25</v>
       </c>
       <c r="R6">
-        <v>212</v>
+        <v>225</v>
       </c>
       <c r="S6">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="T6">
         <v>0</v>
       </c>
       <c r="U6">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="V6">
-        <v>229</v>
+        <v>257</v>
       </c>
     </row>
     <row r="7" spans="1:22">
@@ -880,52 +880,52 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C7" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>226</v>
+        <v>758</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>43</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>749</v>
       </c>
       <c r="M7">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="N7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O7">
-        <v>232</v>
+        <v>0</v>
       </c>
       <c r="P7">
-        <v>27792</v>
+        <v>14548</v>
       </c>
       <c r="Q7">
-        <v>31.11</v>
+        <v>87.7</v>
       </c>
       <c r="R7">
-        <v>209</v>
+        <v>645</v>
       </c>
       <c r="S7">
-        <v>3</v>
+        <v>26</v>
       </c>
       <c r="T7">
         <v>0</v>
       </c>
       <c r="U7">
-        <v>20</v>
+        <v>139</v>
       </c>
       <c r="V7">
-        <v>226</v>
+        <v>758</v>
       </c>
     </row>
     <row r="8" spans="1:22">
@@ -933,40 +933,40 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="C8" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>58</v>
+        <v>315</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O8">
-        <v>58</v>
+        <v>313</v>
       </c>
       <c r="P8">
-        <v>148209</v>
+        <v>156865</v>
       </c>
       <c r="Q8">
-        <v>7.88</v>
+        <v>35.69</v>
       </c>
       <c r="R8">
-        <v>54</v>
+        <v>301</v>
       </c>
       <c r="S8">
         <v>0</v>
@@ -975,10 +975,10 @@
         <v>0</v>
       </c>
       <c r="U8">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="V8">
-        <v>58</v>
+        <v>315</v>
       </c>
     </row>
     <row r="9" spans="1:22">
@@ -986,40 +986,19 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="C9" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>58</v>
-      </c>
-      <c r="K9">
-        <v>0</v>
-      </c>
-      <c r="L9">
-        <v>0</v>
-      </c>
-      <c r="M9">
-        <v>0</v>
-      </c>
-      <c r="N9">
-        <v>0</v>
-      </c>
-      <c r="O9">
-        <v>58</v>
-      </c>
-      <c r="P9">
-        <v>90968</v>
-      </c>
-      <c r="Q9">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="R9">
-        <v>54</v>
+        <v>0</v>
       </c>
       <c r="S9">
         <v>0</v>
@@ -1028,10 +1007,10 @@
         <v>0</v>
       </c>
       <c r="U9">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="V9">
-        <v>58</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:22">
@@ -1039,25 +1018,25 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="C10" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>258</v>
+        <v>938</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>54</v>
       </c>
       <c r="L10">
-        <v>262</v>
+        <v>828</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="N10">
         <v>0</v>
@@ -1066,25 +1045,25 @@
         <v>0</v>
       </c>
       <c r="P10">
-        <v>23989</v>
+        <v>4632</v>
       </c>
       <c r="Q10">
-        <v>31.77</v>
+        <v>111.84</v>
       </c>
       <c r="R10">
-        <v>227</v>
+        <v>874</v>
       </c>
       <c r="S10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="T10">
         <v>0</v>
       </c>
       <c r="U10">
-        <v>32</v>
+        <v>66</v>
       </c>
       <c r="V10">
-        <v>258</v>
+        <v>938</v>
       </c>
     </row>
     <row r="11" spans="1:22">
@@ -1092,22 +1071,22 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="C11" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>257</v>
+        <v>1039</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>92</v>
       </c>
       <c r="L11">
-        <v>262</v>
+        <v>966</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -1119,25 +1098,25 @@
         <v>0</v>
       </c>
       <c r="P11">
-        <v>26497</v>
+        <v>4632</v>
       </c>
       <c r="Q11">
-        <v>31.25</v>
+        <v>118.95</v>
       </c>
       <c r="R11">
-        <v>226</v>
+        <v>944</v>
       </c>
       <c r="S11">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="T11">
         <v>0</v>
       </c>
       <c r="U11">
-        <v>32</v>
+        <v>101</v>
       </c>
       <c r="V11">
-        <v>257</v>
+        <v>1039</v>
       </c>
     </row>
     <row r="12" spans="1:22">
@@ -1145,25 +1124,25 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="C12" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>778</v>
+        <v>505</v>
       </c>
       <c r="K12">
-        <v>43</v>
+        <v>54</v>
       </c>
       <c r="L12">
-        <v>749</v>
+        <v>396</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>58</v>
       </c>
       <c r="N12">
         <v>0</v>
@@ -1172,25 +1151,25 @@
         <v>0</v>
       </c>
       <c r="P12">
-        <v>10746</v>
+        <v>0</v>
       </c>
       <c r="Q12">
-        <v>91</v>
+        <v>61.82</v>
       </c>
       <c r="R12">
-        <v>662</v>
+        <v>502</v>
       </c>
       <c r="S12">
-        <v>26</v>
+        <v>0</v>
       </c>
       <c r="T12">
         <v>0</v>
       </c>
       <c r="U12">
-        <v>142</v>
+        <v>3</v>
       </c>
       <c r="V12">
-        <v>778</v>
+        <v>505</v>
       </c>
     </row>
     <row r="13" spans="1:22">
@@ -1198,25 +1177,25 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="C13" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>758</v>
+        <v>102</v>
       </c>
       <c r="K13">
-        <v>43</v>
+        <v>6</v>
       </c>
       <c r="L13">
-        <v>749</v>
+        <v>96</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N13">
         <v>0</v>
@@ -1225,25 +1204,25 @@
         <v>0</v>
       </c>
       <c r="P13">
-        <v>14548</v>
+        <v>56506</v>
       </c>
       <c r="Q13">
-        <v>87.7</v>
+        <v>19.92</v>
       </c>
       <c r="R13">
-        <v>642</v>
+        <v>100</v>
       </c>
       <c r="S13">
-        <v>26</v>
+        <v>0</v>
       </c>
       <c r="T13">
         <v>0</v>
       </c>
       <c r="U13">
-        <v>142</v>
+        <v>2</v>
       </c>
       <c r="V13">
-        <v>758</v>
+        <v>102</v>
       </c>
     </row>
     <row r="14" spans="1:22">
@@ -1251,40 +1230,19 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="C14" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>318</v>
-      </c>
-      <c r="K14">
-        <v>0</v>
-      </c>
-      <c r="L14">
-        <v>3</v>
-      </c>
-      <c r="M14">
-        <v>1</v>
-      </c>
-      <c r="N14">
-        <v>1</v>
-      </c>
-      <c r="O14">
-        <v>313</v>
-      </c>
-      <c r="P14">
-        <v>157552</v>
-      </c>
-      <c r="Q14">
-        <v>35.74</v>
+        <v>0</v>
       </c>
       <c r="R14">
-        <v>304</v>
+        <v>0</v>
       </c>
       <c r="S14">
         <v>0</v>
@@ -1293,10 +1251,10 @@
         <v>0</v>
       </c>
       <c r="U14">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="V14">
-        <v>318</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:22">
@@ -1304,40 +1262,40 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="C15" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>315</v>
+        <v>140</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="L15">
-        <v>3</v>
+        <v>124</v>
       </c>
       <c r="M15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O15">
-        <v>313</v>
+        <v>0</v>
       </c>
       <c r="P15">
-        <v>156865</v>
+        <v>120113</v>
       </c>
       <c r="Q15">
-        <v>35.69</v>
+        <v>42.13</v>
       </c>
       <c r="R15">
-        <v>301</v>
+        <v>122</v>
       </c>
       <c r="S15">
         <v>0</v>
@@ -1346,10 +1304,10 @@
         <v>0</v>
       </c>
       <c r="U15">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="V15">
-        <v>315</v>
+        <v>140</v>
       </c>
     </row>
     <row r="16" spans="1:22">
@@ -1357,31 +1315,52 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="C16" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>881</v>
+      </c>
+      <c r="K16">
+        <v>154</v>
+      </c>
+      <c r="L16">
+        <v>630</v>
+      </c>
+      <c r="M16">
+        <v>105</v>
+      </c>
+      <c r="N16">
+        <v>0</v>
+      </c>
+      <c r="O16">
+        <v>0</v>
+      </c>
+      <c r="P16">
+        <v>26497</v>
+      </c>
+      <c r="Q16">
+        <v>75.64</v>
       </c>
       <c r="R16">
-        <v>0</v>
+        <v>786</v>
       </c>
       <c r="S16">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="T16">
         <v>0</v>
       </c>
       <c r="U16">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="V16">
-        <v>0</v>
+        <v>881</v>
       </c>
     </row>
     <row r="17" spans="1:22">
@@ -1389,820 +1368,99 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="C17" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>943</v>
+        <v>81</v>
       </c>
       <c r="K17">
+        <v>83</v>
+      </c>
+      <c r="L17">
+        <v>0</v>
+      </c>
+      <c r="M17">
+        <v>0</v>
+      </c>
+      <c r="N17">
+        <v>0</v>
+      </c>
+      <c r="O17">
+        <v>0</v>
+      </c>
+      <c r="P17">
+        <v>109658</v>
+      </c>
+      <c r="Q17">
+        <v>7.49</v>
+      </c>
+      <c r="R17">
+        <v>45</v>
+      </c>
+      <c r="S17">
+        <v>0</v>
+      </c>
+      <c r="T17">
+        <v>0</v>
+      </c>
+      <c r="U17">
+        <v>36</v>
+      </c>
+      <c r="V17">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="18" spans="1:22">
+      <c r="C18" t="s">
         <v>54</v>
       </c>
-      <c r="L17">
-        <v>828</v>
-      </c>
-      <c r="M17">
-        <v>67</v>
-      </c>
-      <c r="N17">
-        <v>0</v>
-      </c>
-      <c r="O17">
-        <v>0</v>
-      </c>
-      <c r="P17">
-        <v>4286</v>
-      </c>
-      <c r="Q17">
-        <v>112.31</v>
-      </c>
-      <c r="R17">
-        <v>878</v>
-      </c>
-      <c r="S17">
-        <v>2</v>
-      </c>
-      <c r="T17">
-        <v>0</v>
-      </c>
-      <c r="U17">
-        <v>67</v>
-      </c>
-      <c r="V17">
-        <v>943</v>
-      </c>
-    </row>
-    <row r="18" spans="1:22">
-      <c r="A18">
-        <v>17</v>
-      </c>
-      <c r="B18" t="s">
-        <v>30</v>
-      </c>
-      <c r="C18" t="s">
-        <v>46</v>
-      </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>938</v>
+        <v>10580</v>
       </c>
       <c r="K18">
-        <v>54</v>
+        <v>616</v>
       </c>
       <c r="L18">
-        <v>828</v>
+        <v>4350</v>
       </c>
       <c r="M18">
-        <v>67</v>
+        <v>247</v>
       </c>
       <c r="N18">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="O18">
-        <v>0</v>
+        <v>5590</v>
       </c>
       <c r="P18">
-        <v>4632</v>
+        <v>669649</v>
       </c>
       <c r="Q18">
-        <v>111.84</v>
+        <v>1221.73</v>
       </c>
       <c r="R18">
-        <v>873</v>
+        <v>9563</v>
       </c>
       <c r="S18">
-        <v>2</v>
+        <v>104</v>
       </c>
       <c r="T18">
         <v>0</v>
       </c>
       <c r="U18">
-        <v>67</v>
+        <v>1121</v>
       </c>
       <c r="V18">
-        <v>938</v>
-      </c>
-    </row>
-    <row r="19" spans="1:22">
-      <c r="A19">
-        <v>18</v>
-      </c>
-      <c r="B19" t="s">
-        <v>31</v>
-      </c>
-      <c r="C19" t="s">
-        <v>47</v>
-      </c>
-      <c r="E19">
-        <v>0</v>
-      </c>
-      <c r="J19">
-        <v>1051</v>
-      </c>
-      <c r="K19">
-        <v>92</v>
-      </c>
-      <c r="L19">
-        <v>966</v>
-      </c>
-      <c r="M19">
-        <v>0</v>
-      </c>
-      <c r="N19">
-        <v>0</v>
-      </c>
-      <c r="O19">
-        <v>0</v>
-      </c>
-      <c r="P19">
-        <v>4286</v>
-      </c>
-      <c r="Q19">
-        <v>97.64</v>
-      </c>
-      <c r="R19">
-        <v>960</v>
-      </c>
-      <c r="S19">
-        <v>6</v>
-      </c>
-      <c r="T19">
-        <v>0</v>
-      </c>
-      <c r="U19">
-        <v>97</v>
-      </c>
-      <c r="V19">
-        <v>1051</v>
-      </c>
-    </row>
-    <row r="20" spans="1:22">
-      <c r="A20">
-        <v>19</v>
-      </c>
-      <c r="B20" t="s">
-        <v>31</v>
-      </c>
-      <c r="C20" t="s">
-        <v>47</v>
-      </c>
-      <c r="E20">
-        <v>0</v>
-      </c>
-      <c r="J20">
-        <v>1039</v>
-      </c>
-      <c r="K20">
-        <v>92</v>
-      </c>
-      <c r="L20">
-        <v>966</v>
-      </c>
-      <c r="M20">
-        <v>0</v>
-      </c>
-      <c r="N20">
-        <v>0</v>
-      </c>
-      <c r="O20">
-        <v>0</v>
-      </c>
-      <c r="P20">
-        <v>4632</v>
-      </c>
-      <c r="Q20">
-        <v>118.95</v>
-      </c>
-      <c r="R20">
-        <v>948</v>
-      </c>
-      <c r="S20">
-        <v>6</v>
-      </c>
-      <c r="T20">
-        <v>0</v>
-      </c>
-      <c r="U20">
-        <v>97</v>
-      </c>
-      <c r="V20">
-        <v>1039</v>
-      </c>
-    </row>
-    <row r="21" spans="1:22">
-      <c r="A21">
-        <v>20</v>
-      </c>
-      <c r="B21" t="s">
-        <v>32</v>
-      </c>
-      <c r="C21" t="s">
-        <v>48</v>
-      </c>
-      <c r="E21">
-        <v>0</v>
-      </c>
-      <c r="J21">
-        <v>507</v>
-      </c>
-      <c r="K21">
-        <v>54</v>
-      </c>
-      <c r="L21">
-        <v>396</v>
-      </c>
-      <c r="M21">
-        <v>58</v>
-      </c>
-      <c r="N21">
-        <v>0</v>
-      </c>
-      <c r="O21">
-        <v>0</v>
-      </c>
-      <c r="P21">
-        <v>0</v>
-      </c>
-      <c r="Q21">
-        <v>61.91</v>
-      </c>
-      <c r="R21">
-        <v>504</v>
-      </c>
-      <c r="S21">
-        <v>0</v>
-      </c>
-      <c r="T21">
-        <v>0</v>
-      </c>
-      <c r="U21">
-        <v>3</v>
-      </c>
-      <c r="V21">
-        <v>507</v>
-      </c>
-    </row>
-    <row r="22" spans="1:22">
-      <c r="A22">
-        <v>21</v>
-      </c>
-      <c r="B22" t="s">
-        <v>32</v>
-      </c>
-      <c r="C22" t="s">
-        <v>48</v>
-      </c>
-      <c r="E22">
-        <v>0</v>
-      </c>
-      <c r="J22">
-        <v>505</v>
-      </c>
-      <c r="K22">
-        <v>54</v>
-      </c>
-      <c r="L22">
-        <v>396</v>
-      </c>
-      <c r="M22">
-        <v>58</v>
-      </c>
-      <c r="N22">
-        <v>0</v>
-      </c>
-      <c r="O22">
-        <v>0</v>
-      </c>
-      <c r="P22">
-        <v>0</v>
-      </c>
-      <c r="Q22">
-        <v>61.82</v>
-      </c>
-      <c r="R22">
-        <v>502</v>
-      </c>
-      <c r="S22">
-        <v>0</v>
-      </c>
-      <c r="T22">
-        <v>0</v>
-      </c>
-      <c r="U22">
-        <v>3</v>
-      </c>
-      <c r="V22">
-        <v>505</v>
-      </c>
-    </row>
-    <row r="23" spans="1:22">
-      <c r="A23">
-        <v>22</v>
-      </c>
-      <c r="B23" t="s">
-        <v>33</v>
-      </c>
-      <c r="C23" t="s">
-        <v>49</v>
-      </c>
-      <c r="E23">
-        <v>0</v>
-      </c>
-      <c r="J23">
-        <v>102</v>
-      </c>
-      <c r="K23">
-        <v>6</v>
-      </c>
-      <c r="L23">
-        <v>96</v>
-      </c>
-      <c r="M23">
-        <v>2</v>
-      </c>
-      <c r="N23">
-        <v>0</v>
-      </c>
-      <c r="O23">
-        <v>0</v>
-      </c>
-      <c r="P23">
-        <v>165150</v>
-      </c>
-      <c r="Q23">
-        <v>19.88</v>
-      </c>
-      <c r="R23">
-        <v>100</v>
-      </c>
-      <c r="S23">
-        <v>0</v>
-      </c>
-      <c r="T23">
-        <v>0</v>
-      </c>
-      <c r="U23">
-        <v>2</v>
-      </c>
-      <c r="V23">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="24" spans="1:22">
-      <c r="A24">
-        <v>23</v>
-      </c>
-      <c r="B24" t="s">
-        <v>33</v>
-      </c>
-      <c r="C24" t="s">
-        <v>49</v>
-      </c>
-      <c r="E24">
-        <v>0</v>
-      </c>
-      <c r="J24">
-        <v>102</v>
-      </c>
-      <c r="K24">
-        <v>6</v>
-      </c>
-      <c r="L24">
-        <v>96</v>
-      </c>
-      <c r="M24">
-        <v>2</v>
-      </c>
-      <c r="N24">
-        <v>0</v>
-      </c>
-      <c r="O24">
-        <v>0</v>
-      </c>
-      <c r="P24">
-        <v>56506</v>
-      </c>
-      <c r="Q24">
-        <v>19.92</v>
-      </c>
-      <c r="R24">
-        <v>100</v>
-      </c>
-      <c r="S24">
-        <v>0</v>
-      </c>
-      <c r="T24">
-        <v>0</v>
-      </c>
-      <c r="U24">
-        <v>2</v>
-      </c>
-      <c r="V24">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="25" spans="1:22">
-      <c r="A25">
-        <v>24</v>
-      </c>
-      <c r="B25" t="s">
-        <v>34</v>
-      </c>
-      <c r="C25" t="s">
-        <v>50</v>
-      </c>
-      <c r="E25">
-        <v>0</v>
-      </c>
-      <c r="J25">
-        <v>0</v>
-      </c>
-      <c r="R25">
-        <v>0</v>
-      </c>
-      <c r="S25">
-        <v>0</v>
-      </c>
-      <c r="T25">
-        <v>0</v>
-      </c>
-      <c r="U25">
-        <v>0</v>
-      </c>
-      <c r="V25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:22">
-      <c r="A26">
-        <v>25</v>
-      </c>
-      <c r="B26" t="s">
-        <v>35</v>
-      </c>
-      <c r="C26" t="s">
-        <v>51</v>
-      </c>
-      <c r="E26">
-        <v>0</v>
-      </c>
-      <c r="J26">
-        <v>141</v>
-      </c>
-      <c r="K26">
-        <v>18</v>
-      </c>
-      <c r="L26">
-        <v>124</v>
-      </c>
-      <c r="M26">
-        <v>0</v>
-      </c>
-      <c r="N26">
-        <v>0</v>
-      </c>
-      <c r="O26">
-        <v>0</v>
-      </c>
-      <c r="P26">
-        <v>112992</v>
-      </c>
-      <c r="Q26">
-        <v>42.53</v>
-      </c>
-      <c r="R26">
-        <v>128</v>
-      </c>
-      <c r="S26">
-        <v>0</v>
-      </c>
-      <c r="T26">
-        <v>0</v>
-      </c>
-      <c r="U26">
-        <v>13</v>
-      </c>
-      <c r="V26">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="27" spans="1:22">
-      <c r="A27">
-        <v>26</v>
-      </c>
-      <c r="B27" t="s">
-        <v>35</v>
-      </c>
-      <c r="C27" t="s">
-        <v>51</v>
-      </c>
-      <c r="E27">
-        <v>0</v>
-      </c>
-      <c r="J27">
-        <v>140</v>
-      </c>
-      <c r="K27">
-        <v>18</v>
-      </c>
-      <c r="L27">
-        <v>124</v>
-      </c>
-      <c r="M27">
-        <v>0</v>
-      </c>
-      <c r="N27">
-        <v>0</v>
-      </c>
-      <c r="O27">
-        <v>0</v>
-      </c>
-      <c r="P27">
-        <v>120113</v>
-      </c>
-      <c r="Q27">
-        <v>42.13</v>
-      </c>
-      <c r="R27">
-        <v>127</v>
-      </c>
-      <c r="S27">
-        <v>0</v>
-      </c>
-      <c r="T27">
-        <v>0</v>
-      </c>
-      <c r="U27">
-        <v>13</v>
-      </c>
-      <c r="V27">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="28" spans="1:22">
-      <c r="A28">
-        <v>27</v>
-      </c>
-      <c r="B28" t="s">
-        <v>36</v>
-      </c>
-      <c r="C28" t="s">
-        <v>52</v>
-      </c>
-      <c r="E28">
-        <v>0</v>
-      </c>
-      <c r="J28">
-        <v>884</v>
-      </c>
-      <c r="K28">
-        <v>154</v>
-      </c>
-      <c r="L28">
-        <v>630</v>
-      </c>
-      <c r="M28">
-        <v>105</v>
-      </c>
-      <c r="N28">
-        <v>0</v>
-      </c>
-      <c r="O28">
-        <v>0</v>
-      </c>
-      <c r="P28">
-        <v>23989</v>
-      </c>
-      <c r="Q28">
-        <v>76.12</v>
-      </c>
-      <c r="R28">
-        <v>790</v>
-      </c>
-      <c r="S28">
-        <v>5</v>
-      </c>
-      <c r="T28">
-        <v>0</v>
-      </c>
-      <c r="U28">
-        <v>99</v>
-      </c>
-      <c r="V28">
-        <v>884</v>
-      </c>
-    </row>
-    <row r="29" spans="1:22">
-      <c r="A29">
-        <v>28</v>
-      </c>
-      <c r="B29" t="s">
-        <v>36</v>
-      </c>
-      <c r="C29" t="s">
-        <v>52</v>
-      </c>
-      <c r="E29">
-        <v>0</v>
-      </c>
-      <c r="J29">
-        <v>881</v>
-      </c>
-      <c r="K29">
-        <v>154</v>
-      </c>
-      <c r="L29">
-        <v>630</v>
-      </c>
-      <c r="M29">
-        <v>105</v>
-      </c>
-      <c r="N29">
-        <v>0</v>
-      </c>
-      <c r="O29">
-        <v>0</v>
-      </c>
-      <c r="P29">
-        <v>26497</v>
-      </c>
-      <c r="Q29">
-        <v>75.64</v>
-      </c>
-      <c r="R29">
-        <v>787</v>
-      </c>
-      <c r="S29">
-        <v>5</v>
-      </c>
-      <c r="T29">
-        <v>0</v>
-      </c>
-      <c r="U29">
-        <v>99</v>
-      </c>
-      <c r="V29">
-        <v>881</v>
-      </c>
-    </row>
-    <row r="30" spans="1:22">
-      <c r="A30">
-        <v>29</v>
-      </c>
-      <c r="B30" t="s">
-        <v>37</v>
-      </c>
-      <c r="C30" t="s">
-        <v>53</v>
-      </c>
-      <c r="E30">
-        <v>0</v>
-      </c>
-      <c r="J30">
-        <v>83</v>
-      </c>
-      <c r="K30">
-        <v>83</v>
-      </c>
-      <c r="L30">
-        <v>0</v>
-      </c>
-      <c r="M30">
-        <v>0</v>
-      </c>
-      <c r="N30">
-        <v>0</v>
-      </c>
-      <c r="O30">
-        <v>0</v>
-      </c>
-      <c r="P30">
-        <v>54783</v>
-      </c>
-      <c r="Q30">
-        <v>6.16</v>
-      </c>
-      <c r="R30">
-        <v>47</v>
-      </c>
-      <c r="S30">
-        <v>0</v>
-      </c>
-      <c r="T30">
-        <v>0</v>
-      </c>
-      <c r="U30">
-        <v>36</v>
-      </c>
-      <c r="V30">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="31" spans="1:22">
-      <c r="A31">
-        <v>30</v>
-      </c>
-      <c r="B31" t="s">
-        <v>37</v>
-      </c>
-      <c r="C31" t="s">
-        <v>53</v>
-      </c>
-      <c r="E31">
-        <v>0</v>
-      </c>
-      <c r="J31">
-        <v>81</v>
-      </c>
-      <c r="K31">
-        <v>83</v>
-      </c>
-      <c r="L31">
-        <v>0</v>
-      </c>
-      <c r="M31">
-        <v>0</v>
-      </c>
-      <c r="N31">
-        <v>0</v>
-      </c>
-      <c r="O31">
-        <v>0</v>
-      </c>
-      <c r="P31">
-        <v>109658</v>
-      </c>
-      <c r="Q31">
-        <v>5.64</v>
-      </c>
-      <c r="R31">
-        <v>45</v>
-      </c>
-      <c r="S31">
-        <v>0</v>
-      </c>
-      <c r="T31">
-        <v>0</v>
-      </c>
-      <c r="U31">
-        <v>36</v>
-      </c>
-      <c r="V31">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="32" spans="1:22">
-      <c r="C32" t="s">
-        <v>54</v>
-      </c>
-      <c r="E32">
-        <v>0</v>
-      </c>
-      <c r="J32">
-        <v>21298</v>
-      </c>
-      <c r="K32">
-        <v>1232</v>
-      </c>
-      <c r="L32">
-        <v>8700</v>
-      </c>
-      <c r="M32">
-        <v>494</v>
-      </c>
-      <c r="N32">
-        <v>50</v>
-      </c>
-      <c r="O32">
-        <v>11180</v>
-      </c>
-      <c r="P32">
-        <v>1459525</v>
-      </c>
-      <c r="Q32">
-        <v>2399.95</v>
-      </c>
-      <c r="R32">
-        <v>19270</v>
-      </c>
-      <c r="S32">
-        <v>208</v>
-      </c>
-      <c r="T32">
-        <v>0</v>
-      </c>
-      <c r="U32">
-        <v>2236</v>
-      </c>
-      <c r="V32">
-        <v>21298</v>
+        <v>10580</v>
       </c>
     </row>
   </sheetData>
